--- a/public/preprocessing/@irmanabd.xlsx
+++ b/public/preprocessing/@irmanabd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17244</v>
+        <v>28013</v>
       </c>
       <c r="C2" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ini terjadi ketika ilmu hanya diajarkan sebagai paket informasi siap pakai bukan pengalaman yang bisa memantik int</t>
+          <t>wild west era is back in indonesia digital era honorary police badges will be given to private citizens</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['ini', 'terjadi', 'ketika', 'ilmu', 'hanya', 'diajarkan', 'sebagai', 'paket', 'informasi', 'siap', 'pakai', 'bukan', 'pengalaman', 'yang', 'bisa', 'memantik', 'int']</t>
+          <t>['wild', 'west', 'era', 'is', 'back', 'in', 'indonesia', 'digital', 'era', 'honorary', 'police', 'badges', 'will', 'be', 'given', 'to', 'private', 'citizens']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['wild', 'west', 'era', 'is', 'back', 'in', 'indonesia', 'digital', 'era', 'honorary', 'police', 'badges', 'will', 'be', 'given', 'to', 'private', 'warga, kota']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['ilmu', 'diajarkan', 'paket', 'informasi', 'pakai', 'pengalaman', 'memantik', 'int']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['ilmu', 'ajar', 'paket', 'informasi', 'pakai', 'alam', 'mantik', 'int']</t>
+          <t>['wild', 'west', 'era', 'is', 'back', 'in', 'indonesia', 'digital', 'era', 'honorary', 'police', 'badges', 'will', 'be', 'given', 'to', 'private', 'warga, kota']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['wild', 'west', 'era', 'is', 'back', 'in', 'indonesia', 'digital', 'era', 'honorary', 'police', 'badges', 'will', 'be', 'given', 'to', 'private', 'warga kota']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17245</v>
+        <v>28014</v>
       </c>
       <c r="C3" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>inilah pentingnya air bersih sistem perpipaan sayangnya pemerintah emoh mengalokasikan anggaran besar untuk sekto</t>
+          <t>no consent halal itu enggak masuk akal menurut saya hukum fikih enggak boleh merampas hak</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['inilah', 'pentingnya', 'air', 'bersih', 'sistem', 'perpipaan', 'sayangnya', 'pemerintah', 'emoh', 'mengalokasikan', 'anggaran', 'besar', 'untuk', 'sekto']</t>
+          <t>['no', 'consent', 'halal', 'itu', 'enggak', 'masuk', 'akal', 'menurut', 'saya', 'hukum', 'fikih', 'enggak', 'boleh', 'merampas', 'hak']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['no', 'consent', 'halal', 'itu', 'tidak', 'masuk', 'akal', 'menurut', 'saya', 'hukum', 'fikih', 'tidak', 'boleh', 'merampas', 'hak']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['air', 'bersih', 'sistem', 'perpipaan', 'sayangnya', 'pemerintah', 'emoh', 'mengalokasikan', 'anggaran', 'sekto']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['air', 'bersih', 'sistem', 'pipa', 'sayang', 'perintah', 'emoh', 'alokasi', 'anggar', 'sekto']</t>
+          <t>['no', 'consent', 'halal', 'masuk', 'akal', 'hukum', 'fikih', 'merampas', 'hak']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['no', 'consent', 'halal', 'masuk', 'akal', 'hukum', 'fikih', 'rampas', 'hak']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17246</v>
+        <v>28015</v>
       </c>
       <c r="C4" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt jkt class action banjir yg masih berjalan saat ini jika menangmaka pemprov dki akan membayar senilai tertentu namun gugat</t>
+          <t>ini karena sekolah orientasinya hanya kognisi termasuk testesnya entah itu un atau pisa sekalipun dan bimbel dg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'jkt', 'class', 'action', 'banjir', 'yg', 'masih', 'berjalan', 'saat', 'ini', 'jika', 'menangmaka', 'pemprov', 'dki', 'akan', 'membayar', 'senilai', 'tertentu', 'namun', 'gugat']</t>
+          <t>['ini', 'karena', 'sekolah', 'orientasinya', 'hanya', 'kognisi', 'termasuk', 'testesnya', 'entah', 'itu', 'un', 'atau', 'pisa', 'sekalipun', 'dan', 'bimbel', 'dg']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['ini', 'karena', 'sekolah', 'orientasinya', 'hanya', 'kognisi', 'termasuk', 'testesnya', 'entah', 'itu', 'ujian, nasional', 'atau', 'pisa', 'sekalipun', 'dan', 'bimbel', 'dengan']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['jkt', 'class', 'action', 'banjir', 'berjalan', 'menangmaka', 'pemprov', 'dki', 'membayar', 'senilai', 'gugat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['jkt', 'class', 'action', 'banjir', 'jalan', 'menangmaka', 'pemprov', 'dki', 'bayar', 'nila', 'gugat']</t>
+          <t>['sekolah', 'orientasinya', 'kognisi', 'testesnya', 'ujian, nasional', 'pisa', 'bimbel']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['sekolah', 'orientasi', 'kognisi', 'testes', 'uji nasional', 'pisa', 'bimbel']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17247</v>
+        <v>28016</v>
       </c>
       <c r="C5" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">padahal lembaga ini di beberapa kasus yg sempat saya ikuti cukup progresif dalam investigasi sehingga menemukan </t>
+          <t>semoga momen ini bisa jadi langkah maju catur di indonesia permainan yang mengajarkan kepada kita pentingnya kesab</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['padahal', 'lembaga', 'ini', 'di', 'beberapa', 'kasus', 'yg', 'sempat', 'saya', 'ikuti', 'cukup', 'progresif', 'dalam', 'investigasi', 'sehingga', 'menemukan']</t>
+          <t>['semoga', 'momen', 'ini', 'bisa', 'jadi', 'langkah', 'maju', 'catur', 'di', 'indonesia', 'permainan', 'yang', 'mengajarkan', 'kepada', 'kita', 'pentingnya', 'kesab']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['semoga', 'momen', 'ini', 'bisa', 'jadi', 'langkah', 'maju', 'catur', 'di', 'indonesia', 'permainan', 'yang', 'mengajarkan', 'kepada', 'kita', 'pentingnya', 'kesab']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['lembaga', 'ikuti', 'progresif', 'investigasi', 'menemukan']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['lembaga', 'ikut', 'progresif', 'investigasi', 'temu']</t>
+          <t>['semoga', 'momen', 'langkah', 'maju', 'catur', 'indonesia', 'permainan', 'mengajarkan', 'kesab']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['moga', 'momen', 'langkah', 'maju', 'catur', 'indonesia', 'main', 'ajar', 'kesab']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17248</v>
+        <v>28017</v>
       </c>
       <c r="C6" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>kelemahan utama ombudsman adalah kapasitasnya dalam mengawasi pelaksanaan langkah korektif dan rekomendasi stafnya</t>
+          <t>rt happy pi day</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['kelemahan', 'utama', 'ombudsman', 'adalah', 'kapasitasnya', 'dalam', 'mengawasi', 'pelaksanaan', 'langkah', 'korektif', 'dan', 'rekomendasi', 'stafnya']</t>
+          <t>['rt', 'happy', 'pi', 'day']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'happy', 'pi', 'day']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['kelemahan', 'utama', 'ombudsman', 'kapasitasnya', 'mengawasi', 'pelaksanaan', 'langkah', 'korektif', 'rekomendasi', 'stafnya']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['lemah', 'utama', 'ombudsman', 'kapasitas', 'awas', 'laksana', 'langkah', 'korektif', 'rekomendasi', 'staf']</t>
+          <t>['happy', 'pi', 'day']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['happy', 'pi', 'day']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17249</v>
+        <v>28018</v>
       </c>
       <c r="C7" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">kultwit mencerahkan agar kita tidak terus terjebak dalam kegilaan tiap akhir dan awal tahun insanity is doing </t>
+          <t>dlm komentar ada yg mengatakan catur bisa dimenangkan dg mencatat langkah bot amp menghapalkannyaspt yg dilakukan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['kultwit', 'mencerahkan', 'agar', 'kita', 'tidak', 'terus', 'terjebak', 'dalam', 'kegilaan', 'tiap', 'akhir', 'dan', 'awal', 'tahun', 'insanity', 'is', 'doing']</t>
+          <t>['dlm', 'komentar', 'ada', 'yg', 'mengatakan', 'catur', 'bisa', 'dimenangkan', 'dg', 'mencatat', 'langkah', 'bot', 'amp', 'menghapalkannyaspt', 'yg', 'dilakukan']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['dalam', 'komentar', 'ada', 'yang', 'mengatakan', 'catur', 'bisa', 'dimenangkan', 'dengan', 'mencatat', 'langkah', 'bot', 'amp', 'menghapalkannyaspt', 'yang', 'dilakukan']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['kultwit', 'mencerahkan', 'terjebak', 'kegilaan', 'insanity', 'is', 'doing']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kultwit', 'cerah', 'jebak', 'gila', 'insanity', 'is', 'doing']</t>
+          <t>['komentar', 'catur', 'dimenangkan', 'mencatat', 'langkah', 'bot', 'menghapalkannyaspt']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['komentar', 'catur', 'menang', 'catat', 'langkah', 'bot', 'menghapalkannyaspt']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17250</v>
+        <v>28019</v>
       </c>
       <c r="C8" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">apa yg terjadi di dan terhadap hotel cecil mesti juga dilihat dari kebijakan perencanaan kota yg juga disinggung </t>
+          <t>dan haul stephen hawking edan di maret semua satu konstanta matematika terpenting</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['apa', 'yg', 'terjadi', 'di', 'dan', 'terhadap', 'hotel', 'cecil', 'mesti', 'juga', 'dilihat', 'dari', 'kebijakan', 'perencanaan', 'kota', 'yg', 'juga', 'disinggung']</t>
+          <t>['dan', 'haul', 'stephen', 'hawking', 'edan', 'di', 'maret', 'semua', 'satu', 'konstanta', 'matematika', 'terpenting']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['dan', 'haul', 'stephen', 'hawking', 'edan', 'di', 'maret', 'semua', 'satu', 'konstanta', 'matematika', 'terpenting']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['hotel', 'cecil', 'mesti', 'kebijakan', 'perencanaan', 'kota', 'disinggung']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['hotel', 'cecil', 'mesti', 'bijak', 'rencana', 'kota', 'singgung']</t>
+          <t>['haul', 'stephen', 'hawking', 'edan', 'maret', 'konstanta', 'matematika', 'terpenting']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['haul', 'stephen', 'hawking', 'edan', 'maret', 'konstanta', 'matematika', 'penting']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17251</v>
+        <v>28020</v>
       </c>
       <c r="C9" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bahkan di negara agama pun teks suci tak bisa serta merta dijadikan hukum positif ia butuh penarikan hukum dari</t>
+          <t>hari ini juga maulid albert einstein salah satu sel abuabu terbaik sejagat yang mengubah cara pandang sains terha</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['bahkan', 'di', 'negara', 'agama', 'pun', 'teks', 'suci', 'tak', 'bisa', 'serta', 'merta', 'dijadikan', 'hukum', 'positif', 'ia', 'butuh', 'penarikan', 'hukum', 'dari']</t>
+          <t>['hari', 'ini', 'juga', 'maulid', 'albert', 'einstein', 'salah', 'satu', 'sel', 'abuabu', 'terbaik', 'sejagat', 'yang', 'mengubah', 'cara', 'pandang', 'sains', 'terha']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['hari', 'ini', 'juga', 'maulid', 'albert', 'einstein', 'salah', 'satu', 'sel', 'abuabu', 'terbaik', 'sejagat', 'yang', 'mengubah', 'cara', 'pandang', 'sains', 'terha']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['negara', 'agama', 'teks', 'suci', 'merta', 'dijadikan', 'hukum', 'positif', 'butuh', 'penarikan', 'hukum']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['negara', 'agama', 'teks', 'suci', 'merta', 'jadi', 'hukum', 'positif', 'butuh', 'tari', 'hukum']</t>
+          <t>['maulid', 'albert', 'einstein', 'salah', 'sel', 'abuabu', 'terbaik', 'sejagat', 'mengubah', 'pandang', 'sains', 'terha']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['maulid', 'albert', 'einstein', 'salah', 'sel', 'abuabu', 'baik', 'jagat', 'ubah', 'pandang', 'sains', 'terha']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17252</v>
+        <v>28021</v>
       </c>
       <c r="C10" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>tanpa disadarinya menyamakan teks suci dgn undangundang adalah bibit pikiran ekstremisme teks suci inspirasi sp</t>
+          <t>ada kehebohan di yg dipicu org indonesia akun org ind dibanned krn curang data gimnya ga</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['tanpa', 'disadarinya', 'menyamakan', 'teks', 'suci', 'dgn', 'undangundang', 'adalah', 'bibit', 'pikiran', 'ekstremisme', 'teks', 'suci', 'inspirasi', 'sp']</t>
+          <t>['ada', 'kehebohan', 'di', 'yg', 'dipicu', 'org', 'indonesia', 'akun', 'org', 'ind', 'dibanned', 'krn', 'curang', 'data', 'gimnya', 'ga']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['ada', 'kehebohan', 'di', 'yang', 'dipicu', 'orang', 'indonesia', 'akun', 'orang', 'indonesia', 'dibanned', 'karena', 'curang', 'data', 'gimnya', 'tidak']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['disadarinya', 'menyamakan', 'teks', 'suci', 'undangundang', 'bibit', 'pikiran', 'ekstremisme', 'teks', 'suci', 'inspirasi', 'sp']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['sadar', 'sama', 'teks', 'suci', 'undangundang', 'bibit', 'pikir', 'ekstrem', 'teks', 'suci', 'inspirasi', 'sp']</t>
+          <t>['kehebohan', 'dipicu', 'orang', 'indonesia', 'akun', 'orang', 'indonesia', 'dibanned', 'curang', 'data', 'gimnya']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['heboh', 'picu', 'orang', 'indonesia', 'akun', 'orang', 'indonesia', 'dibanned', 'curang', 'data', 'gim']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17253</v>
+        <v>28022</v>
       </c>
       <c r="C11" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>saya mengedit buku seorang doktor yang belum bisa membuat kalimat efektif dan yang paling mengesalkan dia menulis</t>
+          <t>beberapa fisikawan teoritis menyebut konsep mereka sebagai story dalam bentuk hitungan matematis sebab mereka han</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['saya', 'mengedit', 'buku', 'seorang', 'doktor', 'yang', 'belum', 'bisa', 'membuat', 'kalimat', 'efektif', 'dan', 'yang', 'paling', 'mengesalkan', 'dia', 'menulis']</t>
+          <t>['beberapa', 'fisikawan', 'teoritis', 'menyebut', 'konsep', 'mereka', 'sebagai', 'story', 'dalam', 'bentuk', 'hitungan', 'matematis', 'sebab', 'mereka', 'han']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['beberapa', 'fisikawan', 'teoritis', 'menyebut', 'konsep', 'mereka', 'sebagai', 'cerita', 'dalam', 'bentuk', 'hitungan', 'matematis', 'sebab', 'mereka', 'han']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['mengedit', 'buku', 'doktor', 'kalimat', 'efektif', 'mengesalkan', 'menulis']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['edit', 'buku', 'doktor', 'kalimat', 'efektif', 'kesal', 'tulis']</t>
+          <t>['fisikawan', 'teoritis', 'menyebut', 'konsep', 'cerita', 'bentuk', 'hitungan', 'matematis', 'han']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['fisikawan', 'teoritis', 'sebut', 'konsep', 'cerita', 'bentuk', 'hitung', 'matematis', 'han']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17254</v>
+        <v>28023</v>
       </c>
       <c r="C12" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>perkembangan menarik lain sebuah sekolah tinggi hukum swasta mewajibkan mahasiswanya membaca novelnovel tertentu</t>
+          <t>ada saja orang yang meremehkan dongeng padahal hampir segala hal tentang manusia adalah dongeng cerita penjela</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['perkembangan', 'menarik', 'lain', 'sebuah', 'sekolah', 'tinggi', 'hukum', 'swasta', 'mewajibkan', 'mahasiswanya', 'membaca', 'novelnovel', 'tertentu']</t>
+          <t>['ada', 'saja', 'orang', 'yang', 'meremehkan', 'dongeng', 'padahal', 'hampir', 'segala', 'hal', 'tentang', 'manusia', 'adalah', 'dongeng', 'cerita', 'penjela']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['ada', 'saja', 'orang', 'yang', 'meremehkan', 'dongeng', 'padahal', 'hampir', 'segala', 'hal', 'tentang', 'manusia', 'adalah', 'dongeng', 'cerita', 'penjela']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['perkembangan', 'menarik', 'sekolah', 'hukum', 'swasta', 'mewajibkan', 'mahasiswanya', 'membaca', 'novelnovel']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['kembang', 'tarik', 'sekolah', 'hukum', 'swasta', 'wajib', 'mahasiswa', 'baca', 'novelnovel']</t>
+          <t>['orang', 'meremehkan', 'dongeng', 'manusia', 'dongeng', 'cerita', 'penjela']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['orang', 'remeh', 'dongeng', 'manusia', 'dongeng', 'cerita', 'jela']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17255</v>
+        <v>28024</v>
       </c>
       <c r="C13" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>saya baru tahu siswa yg ikut ppkb ui diminta menulis esai tentang mengapa dia memilih jurusan tertentu perkembangan menarik</t>
+          <t>good defending for milan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['saya', 'baru', 'tahu', 'siswa', 'yg', 'ikut', 'ppkb', 'ui', 'diminta', 'menulis', 'esai', 'tentang', 'mengapa', 'dia', 'memilih', 'jurusan', 'tertentu', 'perkembangan', 'menarik']</t>
+          <t>['good', 'defending', 'for', 'milan']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['good', 'defending', 'for', 'milan']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['siswa', 'ppkb', 'ui', 'menulis', 'esai', 'memilih', 'jurusan', 'perkembangan', 'menarik']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['siswa', 'ppkb', 'ui', 'tulis', 'esai', 'pilih', 'jurus', 'kembang', 'tarik']</t>
+          <t>['good', 'defending', 'for', 'milan']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['good', 'defending', 'for', 'mil']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17256</v>
+        <v>28025</v>
       </c>
       <c r="C14" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>nama socrates pertama yg mampir di benak saya sebelum socrates sang filsuf socrates salah satu gelandang paling</t>
+          <t>rupanya saya ditakdirkan belum menemukan polisi bagus sejauh ini</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['nama', 'socrates', 'pertama', 'yg', 'mampir', 'di', 'benak', 'saya', 'sebelum', 'socrates', 'sang', 'filsuf', 'socrates', 'salah', 'satu', 'gelandang', 'paling']</t>
+          <t>['rupanya', 'saya', 'ditakdirkan', 'belum', 'menemukan', 'polisi', 'bagus', 'sejauh', 'ini']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['rupanya', 'saya', 'ditakdirkan', 'belum', 'menemukan', 'polisi', 'bagus', 'sejauh', 'ini']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['nama', 'socrates', 'mampir', 'benak', 'socrates', 'sang', 'filsuf', 'socrates', 'salah', 'gelandang']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['nama', 'socrates', 'mampir', 'benak', 'socrates', 'sang', 'filsuf', 'socrates', 'salah', 'gelandang']</t>
+          <t>['ditakdirkan', 'menemukan', 'polisi', 'bagus']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['takdir', 'temu', 'polisi', 'bagus']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17257</v>
+        <v>28026</v>
       </c>
       <c r="C15" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>pandi ini bukan bohong bung ini omong kosong bullshit kalau bohong dia masih peduli dgn nilai</t>
+          <t>mungkin ada yang tertarik membuat ensiklopedia perilaku polisi kisahnya teramat banyak dan beragam ng</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['pandi', 'ini', 'bukan', 'bohong', 'bung', 'ini', 'omong', 'kosong', 'bullshit', 'kalau', 'bohong', 'dia', 'masih', 'peduli', 'dgn', 'nilai']</t>
+          <t>['mungkin', 'ada', 'yang', 'tertarik', 'membuat', 'ensiklopedia', 'perilaku', 'polisi', 'kisahnya', 'teramat', 'banyak', 'dan', 'beragam', 'ng']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['mungkin', 'ada', 'yang', 'tertarik', 'membuat', 'ensiklopedia', 'perilaku', 'polisi', 'kisahnya', 'teramat', 'banyak', 'dan', 'beragam', 'ng']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['pandi', 'bohong', 'omong', 'kosong', 'bullshit', 'bohong', 'peduli', 'nilai']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['pandi', 'bohong', 'omong', 'kosong', 'bullshit', 'bohong', 'peduli', 'nilai']</t>
+          <t>['tertarik', 'ensiklopedia', 'perilaku', 'polisi', 'kisahnya', 'teramat', 'beragam', 'ng']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['tarik', 'ensiklopedia', 'perilaku', 'polisi', 'kisah', 'amat', 'agam', 'ng']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17258</v>
+        <v>28027</v>
       </c>
       <c r="C16" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>iya dua dinihari di awal terasa spt horormisteri biasa tapi di sepertiga terakhir novel ini meref</t>
+          <t>rt happy birthday world wide web in march an unimaginably powerful tool was invented by british scientist lee he</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['iya', 'dua', 'dinihari', 'di', 'awal', 'terasa', 'spt', 'horormisteri', 'biasa', 'tapi', 'di', 'sepertiga', 'terakhir', 'novel', 'ini', 'meref']</t>
+          <t>['rt', 'happy', 'birthday', 'world', 'wide', 'web', 'in', 'march', 'an', 'unimaginably', 'powerful', 'tool', 'was', 'invented', 'by', 'british', 'scientist', 'lee', 'he']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'happy', 'birthday', 'world', 'wide', 'web', 'in', 'march', 'an', 'unimaginably', 'powerful', 'tool', 'was', 'invented', 'by', 'british', 'scientist', 'lee', 'he']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['iya', 'dinihari', 'spt', 'horormisteri', 'sepertiga', 'novel', 'meref']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['iya', 'dinihari', 'spt', 'horormisteri', 'tiga', 'novel', 'meref']</t>
+          <t>['happy', 'birthday', 'world', 'wide', 'web', 'in', 'march', 'an', 'unimaginably', 'powerful', 'tool', 'was', 'invented', 'by', 'british', 'scientist', 'lee', 'he']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['happy', 'birthday', 'world', 'wide', 'web', 'in', 'march', 'an', 'unimaginably', 'powerful', 'tool', 'was', 'invented', 'by', 'british', 'scientist', 'lee', 'he']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17259</v>
+        <v>28028</v>
       </c>
       <c r="C17" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">sudah diterapkan di palembang dasarnya perkap edan memang restorative justice harus sangat </t>
+          <t>lalu pelajaran agama menanyakan nama hukum tajwid ya allah kalau anak sudah tahu cara bacanya enggak perlu tahu</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['sudah', 'diterapkan', 'di', 'palembang', 'dasarnya', 'perkap', 'edan', 'memang', 'restorative', 'justice', 'harus', 'sangat']</t>
+          <t>['lalu', 'pelajaran', 'agama', 'menanyakan', 'nama', 'hukum', 'tajwid', 'ya', 'allah', 'kalau', 'anak', 'sudah', 'tahu', 'cara', 'bacanya', 'enggak', 'perlu', 'tahu']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['lalu', 'pelajaran', 'agama', 'menanyakan', 'nama', 'hukum', 'tajwid', 'ya', 'allah', 'kalau', 'anak', 'sudah', 'tahu', 'cara', 'bacanya', 'tidak', 'perlu', 'tahu']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['diterapkan', 'palembang', 'dasarnya', 'perkap', 'edan', 'restorative', 'justice']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['terap', 'palembang', 'dasar', 'kap', 'edan', 'restorative', 'justice']</t>
+          <t>['pelajaran', 'agama', 'nama', 'hukum', 'tajwid', 'allah', 'anak', 'bacanya']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['ajar', 'agama', 'nama', 'hukum', 'tajwid', 'allah', 'anak', 'baca']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17260</v>
+        <v>28029</v>
       </c>
       <c r="C18" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ini yang terjadi ketika politik kebijakan publik dioutsource ke kapital real estate</t>
+          <t>kecakapan berbahasa itu anak mampu memahami isi bacaan bukan tetek bengek jenis paragrafnya setelah memahami ana</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['ini', 'yang', 'terjadi', 'ketika', 'politik', 'kebijakan', 'publik', 'dioutsource', 'ke', 'kapital', 'real', 'estate']</t>
+          <t>['kecakapan', 'berbahasa', 'itu', 'anak', 'mampu', 'memahami', 'isi', 'bacaan', 'bukan', 'tetek', 'bengek', 'jenis', 'paragrafnya', 'setelah', 'memahami', 'ana']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['kecakapan', 'berbahasa', 'itu', 'anak', 'mampu', 'memahami', 'isi', 'bacaan', 'bukan', 'tetek', 'bengek', 'jenis', 'paragrafnya', 'setelah', 'memahami', 'saya']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['politik', 'kebijakan', 'publik', 'dioutsource', 'kapital', 'real', 'estate']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['politik', 'bijak', 'publik', 'dioutsource', 'kapital', 'real', 'estate']</t>
+          <t>['kecakapan', 'berbahasa', 'anak', 'memahami', 'isi', 'bacaan', 'tetek', 'bengek', 'jenis', 'paragrafnya', 'memahami']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['cakap', 'bahasa', 'anak', 'paham', 'isi', 'baca', 'tetek', 'bengek', 'jenis', 'paragraf', 'paham']</t>
         </is>
       </c>
     </row>
@@ -1087,30 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17261</v>
+        <v>28030</v>
       </c>
       <c r="C19" t="n">
-        <v>214</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>330</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>mulai masuk masa pts untuk anak sekolah karena online sempat intip soal bahasa indonesia ternyata masih cukup</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mulai', 'masuk', 'masa', 'pts', 'untuk', 'anak', 'sekolah', 'karena', 'online', 'sempat', 'intip', 'soal', 'bahasa', 'indonesia', 'ternyata', 'masih', 'cukup']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['mulai', 'masuk', 'masa', 'pts', 'untuk', 'anak', 'sekolah', 'karena', 'online', 'sempat', 'intip', 'soal', 'bahasa', 'indonesia', 'ternyata', 'masih', 'cukup']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['masuk', 'pts', 'anak', 'sekolah', 'online', 'intip', 'bahasa', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['masuk', 'pts', 'anak', 'sekolah', 'online', 'intip', 'bahasa', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -1119,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17262</v>
+        <v>28031</v>
       </c>
       <c r="C20" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sentul city bermasalah dlm pengelolaan air dan peralihan hak atas tanah konsumen sehingga konsumen terpaksa terlib</t>
+          <t>sudah paling pas kata cinta benci itu intoleran eksklusif ekstrem kecuali benci kepada kemungkaran</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['sentul', 'city', 'bermasalah', 'dlm', 'pengelolaan', 'air', 'dan', 'peralihan', 'hak', 'atas', 'tanah', 'konsumen', 'sehingga', 'konsumen', 'terpaksa', 'terlib']</t>
+          <t>['sudah', 'paling', 'pas', 'kata', 'cinta', 'benci', 'itu', 'intoleran', 'eksklusif', 'ekstrem', 'kecuali', 'benci', 'kepada', 'kemungkaran']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['sudah', 'paling', 'pas', 'kata', 'cinta', 'benci', 'itu', 'intoleran', 'eksklusif', 'ekstrem', 'kecuali', 'benci', 'kepada', 'kemungkaran']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['sentul', 'city', 'bermasalah', 'dlm', 'pengelolaan', 'air', 'peralihan', 'hak', 'tanah', 'konsumen', 'konsumen', 'terpaksa', 'terlib']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['sentul', 'city', 'masalah', 'dlm', 'kelola', 'air', 'alih', 'hak', 'tanah', 'konsumen', 'konsumen', 'paksa', 'terlib']</t>
+          <t>['pas', 'cinta', 'benci', 'intoleran', 'eksklusif', 'ekstrem', 'kecuali', 'benci', 'kemungkaran']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['pas', 'cinta', 'benci', 'intoleran', 'eksklusif', 'ekstrem', 'kecuali', 'benci', 'mungkar']</t>
         </is>
       </c>
     </row>
@@ -1155,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17263</v>
+        <v>28032</v>
       </c>
       <c r="C21" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>kedua pengembang terlibat masalah dengan warga baik penghuni maupun warga sekitar agung sedayu bermasalah dlm pro</t>
+          <t>hassan farhan almaliki ulama saudi yang berpikiran progresif salah satunya dia memandang yang menentukan pengha</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['kedua', 'pengembang', 'terlibat', 'masalah', 'dengan', 'warga', 'baik', 'penghuni', 'maupun', 'warga', 'sekitar', 'agung', 'sedayu', 'bermasalah', 'dlm', 'pro']</t>
+          <t>['hassan', 'farhan', 'almaliki', 'ulama', 'saudi', 'yang', 'berpikiran', 'progresif', 'salah', 'satunya', 'dia', 'memandang', 'yang', 'menentukan', 'pengha']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['hasan', 'farhan', 'almaliki', 'ulama', 'saudi', 'yang', 'berpikiran', 'progresif', 'salah', 'satunya', 'dia', 'memandang', 'yang', 'menentukan', 'pengha']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['pengembang', 'terlibat', 'warga', 'penghuni', 'warga', 'agung', 'sedayu', 'bermasalah', 'dlm', 'pro']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['kembang', 'libat', 'warga', 'huni', 'warga', 'agung', 'dayu', 'masalah', 'dlm', 'pro']</t>
+          <t>['hasan', 'farhan', 'almaliki', 'ulama', 'saudi', 'berpikiran', 'progresif', 'salah', 'satunya', 'memandang', 'menentukan', 'pengha']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['hasan', 'farhan', 'almalik', 'ulama', 'saudi', 'pikir', 'progresif', 'salah', 'satu', 'pandang', 'tentu', 'pengha']</t>
         </is>
       </c>
     </row>
@@ -1191,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17264</v>
+        <v>28033</v>
       </c>
       <c r="C22" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">dua gergasi pengembang tampaknya menyumbangkan lahan untuk nu agung sedayu untuk rs di pik sentul city untuk </t>
+          <t>ini terjadi ketika ilmu hanya diajarkan sebagai paket informasi siap pakai bukan pengalaman yang bisa memantik int</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['dua', 'gergasi', 'pengembang', 'tampaknya', 'menyumbangkan', 'lahan', 'untuk', 'nu', 'agung', 'sedayu', 'untuk', 'rs', 'di', 'pik', 'sentul', 'city', 'untuk']</t>
+          <t>['ini', 'terjadi', 'ketika', 'ilmu', 'hanya', 'diajarkan', 'sebagai', 'paket', 'informasi', 'siap', 'pakai', 'bukan', 'pengalaman', 'yang', 'bisa', 'memantik', 'int']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['ini', 'terjadi', 'ketika', 'ilmu', 'hanya', 'diajarkan', 'sebagai', 'paket', 'informasi', 'siap', 'pakai', 'bukan', 'pengalaman', 'yang', 'bisa', 'memantik', 'int']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['gergasi', 'pengembang', 'menyumbangkan', 'lahan', 'nu', 'agung', 'sedayu', 'rs', 'pik', 'sentul', 'city']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['gergasi', 'kembang', 'sumbang', 'lahan', 'nu', 'agung', 'dayu', 'rs', 'pik', 'sentul', 'city']</t>
+          <t>['ilmu', 'diajarkan', 'paket', 'informasi', 'pakai', 'pengalaman', 'memantik', 'int']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['ilmu', 'ajar', 'paket', 'informasi', 'pakai', 'alam', 'mantik', 'int']</t>
         </is>
       </c>
     </row>
@@ -1227,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17265</v>
+        <v>28034</v>
       </c>
       <c r="C23" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ameliaplath annemarie dlm buku itu menunjukkan bahwa teks suci islam yg menginspirasi tasawuf sara</t>
+          <t>inilah pentingnya air bersih sistem perpipaan sayangnya pemerintah emoh mengalokasikan anggaran besar untuk sekto</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['ameliaplath', 'annemarie', 'dlm', 'buku', 'itu', 'menunjukkan', 'bahwa', 'teks', 'suci', 'islam', 'yg', 'menginspirasi', 'tasawuf', 'sara']</t>
+          <t>['inilah', 'pentingnya', 'air', 'bersih', 'sistem', 'perpipaan', 'sayangnya', 'pemerintah', 'emoh', 'mengalokasikan', 'anggaran', 'besar', 'untuk', 'sekto']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['inilah', 'pentingnya', 'air', 'bersih', 'sistem', 'perpipaan', 'sayangnya', 'pemerintah', 'emoh', 'mengalokasikan', 'anggaran', 'besar', 'untuk', 'sekto']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['ameliaplath', 'annemarie', 'dlm', 'buku', 'teks', 'suci', 'islam', 'menginspirasi', 'tasawuf', 'sara']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['ameliaplath', 'annemarie', 'dlm', 'buku', 'teks', 'suci', 'islam', 'inspirasi', 'tasawuf', 'sara']</t>
+          <t>['air', 'bersih', 'sistem', 'perpipaan', 'sayangnya', 'pemerintah', 'emoh', 'mengalokasikan', 'anggaran', 'sekto']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['air', 'bersih', 'sistem', 'pipa', 'sayang', 'perintah', 'emoh', 'alokasi', 'anggar', 'sekto']</t>
         </is>
       </c>
     </row>
@@ -1263,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17266</v>
+        <v>28035</v>
       </c>
       <c r="C24" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>feminin secara substansial</t>
+          <t>rt jkt class action banjir yg masih berjalan saat ini jika menangmaka pemprov dki akan membayar senilai tertentu namun gugat</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['feminin', 'secara', 'substansial']</t>
+          <t>['rt', 'jkt', 'class', 'action', 'banjir', 'yg', 'masih', 'berjalan', 'saat', 'ini', 'jika', 'menangmaka', 'pemprov', 'dki', 'akan', 'membayar', 'senilai', 'tertentu', 'namun', 'gugat']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'jakarta', 'class', 'action', 'banjir', 'yang', 'masih', 'berjalan', 'saat', 'ini', 'jika', 'menangmaka', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'akan', 'membayar', 'senilai', 'tertentu', 'namun', 'gugat']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['feminin', 'substansial']</t>
+          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['feminin', 'substansial']</t>
+          <t>['jakarta', 'class', 'action', 'banjir', 'berjalan', 'menangmaka', 'pemerintah, provinsi', 'daerah, khusus, ibukota', 'membayar', 'senilai', 'gugat']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['jakarta', 'class', 'action', 'banjir', 'jalan', 'menangmaka', 'perintah provinsi', 'daerah khusus ibukota', 'bayar', 'nila', 'gugat']</t>
         </is>
       </c>
     </row>
@@ -1299,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17267</v>
+        <v>28036</v>
       </c>
       <c r="C25" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>setuju tidak tepat menempatkan tni bersama lembaga sipil dlm soal public trust jangankan soal hukum dan peradilan</t>
+          <t xml:space="preserve">padahal lembaga ini di beberapa kasus yg sempat saya ikuti cukup progresif dalam investigasi sehingga menemukan </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['setuju', 'tidak', 'tepat', 'menempatkan', 'tni', 'bersama', 'lembaga', 'sipil', 'dlm', 'soal', 'public', 'trust', 'jangankan', 'soal', 'hukum', 'dan', 'peradilan']</t>
+          <t>['padahal', 'lembaga', 'ini', 'di', 'beberapa', 'kasus', 'yg', 'sempat', 'saya', 'ikuti', 'cukup', 'progresif', 'dalam', 'investigasi', 'sehingga', 'menemukan']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['padahal', 'lembaga', 'ini', 'di', 'beberapa', 'kasus', 'yang', 'sempat', 'saya', 'ikuti', 'cukup', 'progresif', 'dalam', 'investigasi', 'sehingga', 'menemukan']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['setuju', 'menempatkan', 'tni', 'lembaga', 'sipil', 'dlm', 'public', 'trust', 'hukum', 'peradilan']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['tuju', 'tempat', 'tni', 'lembaga', 'sipil', 'dlm', 'public', 'trust', 'hukum', 'adil']</t>
+          <t>['lembaga', 'ikuti', 'progresif', 'investigasi', 'menemukan']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['lembaga', 'ikut', 'progresif', 'investigasi', 'temu']</t>
         </is>
       </c>
     </row>
@@ -1335,30 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17268</v>
+        <v>28037</v>
       </c>
       <c r="C26" t="n">
-        <v>214</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>330</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>kelemahan utama ombudsman adalah kapasitasnya dalam mengawasi pelaksanaan langkah korektif dan rekomendasi stafnya</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kelemahan', 'utama', 'ombudsman', 'adalah', 'kapasitasnya', 'dalam', 'mengawasi', 'pelaksanaan', 'langkah', 'korektif', 'dan', 'rekomendasi', 'stafnya']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kelemahan', 'utama', 'ombudsman', 'adalah', 'kapasitasnya', 'dalam', 'mengawasi', 'pelaksanaan', 'langkah', 'korektif', 'dan', 'rekomendasi', 'stafnya']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kelemahan', 'utama', 'ombudsman', 'kapasitasnya', 'mengawasi', 'pelaksanaan', 'langkah', 'korektif', 'rekomendasi', 'stafnya']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['lemah', 'utama', 'ombudsman', 'kapasitas', 'awas', 'laksana', 'langkah', 'korektif', 'rekomendasi', 'staf']</t>
         </is>
       </c>
     </row>
@@ -1367,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17269</v>
+        <v>28038</v>
       </c>
       <c r="C27" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>bentuk sama warna sama gimana identifikasi kelompoknya dahsyat</t>
+          <t xml:space="preserve">kultwit mencerahkan agar kita tidak terus terjebak dalam kegilaan tiap akhir dan awal tahun insanity is doing </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['bentuk', 'sama', 'warna', 'sama', 'gimana', 'identifikasi', 'kelompoknya', 'dahsyat']</t>
+          <t>['kultwit', 'mencerahkan', 'agar', 'kita', 'tidak', 'terus', 'terjebak', 'dalam', 'kegilaan', 'tiap', 'akhir', 'dan', 'awal', 'tahun', 'insanity', 'is', 'doing']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['kuliah, lewat, twitter', 'mencerahkan', 'agar', 'kita', 'tidak', 'terus', 'terjebak', 'dalam', 'kegilaan', 'tiap', 'akhir', 'dan', 'awal', 'tahun', 'insanity', 'is', 'doing']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['bentuk', 'warna', 'gimana', 'identifikasi', 'kelompoknya', 'dahsyat']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['bentuk', 'warna', 'gimana', 'identifikasi', 'kelompok', 'dahsyat']</t>
+          <t>['kuliah, lewat, twitter', 'mencerahkan', 'terjebak', 'kegilaan', 'insanity', 'is', 'doing']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['kuliah lewat twitter', 'cerah', 'jebak', 'gila', 'insanity', 'is', 'doing']</t>
         </is>
       </c>
     </row>
@@ -1403,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17270</v>
+        <v>28039</v>
       </c>
       <c r="C28" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>rt penegak hukum terima suap rp miliar lebih dituntut tahun lu kerja halal tahun juga mungkin belum tentu bisa da</t>
+          <t xml:space="preserve">apa yg terjadi di dan terhadap hotel cecil mesti juga dilihat dari kebijakan perencanaan kota yg juga disinggung </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['rt', 'penegak', 'hukum', 'terima', 'suap', 'rp', 'miliar', 'lebih', 'dituntut', 'tahun', 'lu', 'kerja', 'halal', 'tahun', 'juga', 'mungkin', 'belum', 'tentu', 'bisa', 'da']</t>
+          <t>['apa', 'yg', 'terjadi', 'di', 'dan', 'terhadap', 'hotel', 'cecil', 'mesti', 'juga', 'dilihat', 'dari', 'kebijakan', 'perencanaan', 'kota', 'yg', 'juga', 'disinggung']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['apa', 'yang', 'terjadi', 'di', 'dan', 'terhadap', 'hotel', 'cecil', 'mesti', 'juga', 'dilihat', 'dari', 'kebijakan', 'perencanaan', 'kota', 'yang', 'juga', 'disinggung']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['penegak', 'hukum', 'terima', 'suap', 'rp', 'miliar', 'dituntut', 'lu', 'kerja', 'halal', 'da']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['tegak', 'hukum', 'terima', 'suap', 'rp', 'miliar', 'tuntut', 'lu', 'kerja', 'halal', 'da']</t>
+          <t>['hotel', 'cecil', 'mesti', 'kebijakan', 'perencanaan', 'kota', 'disinggung']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['hotel', 'cecil', 'mesti', 'bijak', 'rencana', 'kota', 'singgung']</t>
         </is>
       </c>
     </row>
@@ -1439,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17271</v>
+        <v>28040</v>
       </c>
       <c r="C29" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>rt not only is israel shirking its obligation under intnl law to provide vaccines to the occupied palestinian population bu</t>
+          <t>bahkan di negara agama pun teks suci tak bisa serta merta dijadikan hukum positif ia butuh penarikan hukum dari</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['rt', 'not', 'only', 'is', 'israel', 'shirking', 'its', 'obligation', 'under', 'intnl', 'law', 'to', 'provide', 'vaccines', 'to', 'the', 'occupied', 'palestinian', 'population', 'bu']</t>
+          <t>['bahkan', 'di', 'negara', 'agama', 'pun', 'teks', 'suci', 'tak', 'bisa', 'serta', 'merta', 'dijadikan', 'hukum', 'positif', 'ia', 'butuh', 'penarikan', 'hukum', 'dari']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['bahkan', 'di', 'negara', 'agama', 'pun', 'teks', 'suci', 'tak', 'bisa', 'serta', 'merta', 'dijadikan', 'hukum', 'positif', 'ia', 'butuh', 'penarikan', 'hukum', 'dari']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['not', 'only', 'is', 'israel', 'shirking', 'its', 'obligation', 'under', 'intnl', 'law', 'to', 'provide', 'vaccines', 'to', 'the', 'occupied', 'palestinian', 'population', 'bu']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['not', 'only', 'is', 'israel', 'shirking', 'its', 'obligation', 'under', 'intnl', 'law', 'to', 'provide', 'vaccines', 'to', 'the', 'occupied', 'palestinian', 'population', 'bu']</t>
+          <t>['negara', 'agama', 'teks', 'suci', 'merta', 'dijadikan', 'hukum', 'positif', 'butuh', 'penarikan', 'hukum']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['negara', 'agama', 'teks', 'suci', 'merta', 'jadi', 'hukum', 'positif', 'butuh', 'tari', 'hukum']</t>
         </is>
       </c>
     </row>
@@ -1475,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17272</v>
+        <v>28041</v>
       </c>
       <c r="C30" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>gaya khas menulis kang jalal adalah memulai dengan cerita bahkan di buku teks seperti psikologi komunikasi dia lal</t>
+          <t>tanpa disadarinya menyamakan teks suci dgn undangundang adalah bibit pikiran ekstremisme teks suci inspirasi sp</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['gaya', 'khas', 'menulis', 'kang', 'jalal', 'adalah', 'memulai', 'dengan', 'cerita', 'bahkan', 'di', 'buku', 'teks', 'seperti', 'psikologi', 'komunikasi', 'dia', 'lal']</t>
+          <t>['tanpa', 'disadarinya', 'menyamakan', 'teks', 'suci', 'dgn', 'undangundang', 'adalah', 'bibit', 'pikiran', 'ekstremisme', 'teks', 'suci', 'inspirasi', 'sp']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['tanpa', 'disadarinya', 'menyamakan', 'teks', 'suci', 'dengan', 'undangundang', 'adalah', 'bibit', 'pikiran', 'ekstremisme', 'teks', 'suci', 'inspirasi', 'sp']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['gaya', 'khas', 'menulis', 'kang', 'jalal', 'cerita', 'buku', 'teks', 'psikologi', 'komunikasi', 'lal']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['gaya', 'khas', 'tulis', 'kang', 'jalal', 'cerita', 'buku', 'teks', 'psikologi', 'komunikasi', 'lal']</t>
+          <t>['disadarinya', 'menyamakan', 'teks', 'suci', 'undangundang', 'bibit', 'pikiran', 'ekstremisme', 'teks', 'suci', 'inspirasi', 'sp']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['sadar', 'sama', 'teks', 'suci', 'undangundang', 'bibit', 'pikir', 'ekstrem', 'teks', 'suci', 'inspirasi', 'sp']</t>
         </is>
       </c>
     </row>
@@ -1511,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17273</v>
+        <v>28042</v>
       </c>
       <c r="C31" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>menulis buku adalah perjuangan mengerikan melelahkan seperti pertarungan panjang melawan penyakit yang menyakitk</t>
+          <t>saya mengedit buku seorang doktor yang belum bisa membuat kalimat efektif dan yang paling mengesalkan dia menulis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['menulis', 'buku', 'adalah', 'perjuangan', 'mengerikan', 'melelahkan', 'seperti', 'pertarungan', 'panjang', 'melawan', 'penyakit', 'yang', 'menyakitk']</t>
+          <t>['saya', 'mengedit', 'buku', 'seorang', 'doktor', 'yang', 'belum', 'bisa', 'membuat', 'kalimat', 'efektif', 'dan', 'yang', 'paling', 'mengesalkan', 'dia', 'menulis']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['saya', 'mengedit', 'buku', 'seorang', 'doktor', 'yang', 'belum', 'bisa', 'membuat', 'kalimat', 'efektif', 'dan', 'yang', 'paling', 'mengesalkan', 'dia', 'menulis']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['menulis', 'buku', 'perjuangan', 'mengerikan', 'melelahkan', 'pertarungan', 'melawan', 'penyakit', 'menyakitk']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['tulis', 'buku', 'juang', 'keri', 'lelah', 'tarung', 'lawan', 'sakit', 'menyakitk']</t>
+          <t>['mengedit', 'buku', 'doktor', 'kalimat', 'efektif', 'mengesalkan', 'menulis']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['edit', 'buku', 'doktor', 'kalimat', 'efektif', 'kesal', 'tulis']</t>
         </is>
       </c>
     </row>
@@ -1547,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17274</v>
+        <v>28043</v>
       </c>
       <c r="C32" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rt id pada februari dikabarkan meninggal dunia jalaluddin rakhmat dia penulis produktif buku psikologi komunikasi dan</t>
+          <t>perkembangan menarik lain sebuah sekolah tinggi hukum swasta mewajibkan mahasiswanya membaca novelnovel tertentu</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'pada', 'februari', 'dikabarkan', 'meninggal', 'dunia', 'jalaluddin', 'rakhmat', 'dia', 'penulis', 'produktif', 'buku', 'psikologi', 'komunikasi', 'dan']</t>
+          <t>['perkembangan', 'menarik', 'lain', 'sebuah', 'sekolah', 'tinggi', 'hukum', 'swasta', 'mewajibkan', 'mahasiswanya', 'membaca', 'novelnovel', 'tertentu']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['perkembangan', 'menarik', 'lain', 'sebuah', 'sekolah', 'tinggi', 'hukum', 'swasta', 'mewajibkan', 'mahasiswanya', 'membaca', 'novelnovel', 'tertentu']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['id', 'februari', 'dikabarkan', 'meninggal', 'dunia', 'jalaluddin', 'rakhmat', 'penulis', 'produktif', 'buku', 'psikologi', 'komunikasi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['id', 'februari', 'kabar', 'tinggal', 'dunia', 'jalaluddin', 'rakhmat', 'tulis', 'produktif', 'buku', 'psikologi', 'komunikasi']</t>
+          <t>['perkembangan', 'menarik', 'sekolah', 'hukum', 'swasta', 'mewajibkan', 'mahasiswanya', 'membaca', 'novelnovel']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['kembang', 'tarik', 'sekolah', 'hukum', 'swasta', 'wajib', 'mahasiswa', 'baca', 'novelnovel']</t>
         </is>
       </c>
     </row>
@@ -1583,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17275</v>
+        <v>28044</v>
       </c>
       <c r="C33" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>bentuk eksekusinya dibakar hiduphidup tapi api rupanya enggan menjilat sang wali seinci pun sunan panggung kelu</t>
+          <t>saya baru tahu siswa yg ikut ppkb ui diminta menulis esai tentang mengapa dia memilih jurusan tertentu perkembangan menarik</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['bentuk', 'eksekusinya', 'dibakar', 'hiduphidup', 'tapi', 'api', 'rupanya', 'enggan', 'menjilat', 'sang', 'wali', 'seinci', 'pun', 'sunan', 'panggung', 'kelu']</t>
+          <t>['saya', 'baru', 'tahu', 'siswa', 'yg', 'ikut', 'ppkb', 'ui', 'diminta', 'menulis', 'esai', 'tentang', 'mengapa', 'dia', 'memilih', 'jurusan', 'tertentu', 'perkembangan', 'menarik']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['saya', 'baru', 'tahu', 'siswa', 'yang', 'ikut', 'ppkb', 'oi', 'diminta', 'menulis', 'esai', 'tentang', 'mengapa', 'dia', 'memilih', 'jurusan', 'tertentu', 'perkembangan', 'menarik']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['bentuk', 'eksekusinya', 'dibakar', 'hiduphidup', 'api', 'enggan', 'menjilat', 'sang', 'wali', 'seinci', 'sunan', 'panggung', 'kelu']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['bentuk', 'eksekusi', 'bakar', 'hiduphidup', 'api', 'enggan', 'jilat', 'sang', 'wali', 'inci', 'sunan', 'panggung', 'kelu']</t>
+          <t>['siswa', 'ppkb', 'oi', 'menulis', 'esai', 'memilih', 'jurusan', 'perkembangan', 'menarik']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['siswa', 'ppkb', 'oi', 'tulis', 'esai', 'pilih', 'jurus', 'kembang', 'tarik']</t>
         </is>
       </c>
     </row>
@@ -1619,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17276</v>
+        <v>28045</v>
       </c>
       <c r="C34" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>sebuah kitab bernama suluk malang sumirang dinisbatkan kepada wali ini isinya syairsyair yang menentang ortodoksi</t>
+          <t>nama socrates pertama yg mampir di benak saya sebelum socrates sang filsuf socrates salah satu gelandang paling</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['sebuah', 'kitab', 'bernama', 'suluk', 'malang', 'sumirang', 'dinisbatkan', 'kepada', 'wali', 'ini', 'isinya', 'syairsyair', 'yang', 'menentang', 'ortodoksi']</t>
+          <t>['nama', 'socrates', 'pertama', 'yg', 'mampir', 'di', 'benak', 'saya', 'sebelum', 'socrates', 'sang', 'filsuf', 'socrates', 'salah', 'satu', 'gelandang', 'paling']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['nama', 'socrates', 'pertama', 'yang', 'mampir', 'di', 'benak', 'saya', 'sebelum', 'socrates', 'sang', 'filsuf', 'socrates', 'salah', 'satu', 'gelandang', 'paling']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['kitab', 'bernama', 'suluk', 'malang', 'sumirang', 'dinisbatkan', 'wali', 'isinya', 'syairsyair', 'menentang', 'ortodoksi']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['kitab', 'nama', 'suluk', 'malang', 'sumirang', 'dinisbatkan', 'wali', 'isi', 'syairsyair', 'tentang', 'ortodoksi']</t>
+          <t>['nama', 'socrates', 'mampir', 'benak', 'socrates', 'sang', 'filsuf', 'socrates', 'salah', 'gelandang']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['nama', 'socrates', 'mampir', 'benak', 'socrates', 'sang', 'filsuf', 'socrates', 'salah', 'gelandang']</t>
         </is>
       </c>
     </row>
@@ -1655,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17277</v>
+        <v>28046</v>
       </c>
       <c r="C35" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>wali itu dikenal sunan panggung petilasan keramatnya di tegal jawa tengah dia memelihara anjing satu berwarna</t>
+          <t>pandi ini bukan bohong bung ini omong kosong bullshit kalau bohong dia masih peduli dgn nilai</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['wali', 'itu', 'dikenal', 'sunan', 'panggung', 'petilasan', 'keramatnya', 'di', 'tegal', 'jawa', 'tengah', 'dia', 'memelihara', 'anjing', 'satu', 'berwarna']</t>
+          <t>['pandi', 'ini', 'bukan', 'bohong', 'bung', 'ini', 'omong', 'kosong', 'bullshit', 'kalau', 'bohong', 'dia', 'masih', 'peduli', 'dgn', 'nilai']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['pandi', 'ini', 'bukan', 'bohong', 'bung', 'ini', 'omong', 'kosong', 'bullshit', 'kalau', 'bohong', 'dia', 'masih', 'peduli', 'dengan', 'nilai']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['wali', 'dikenal', 'sunan', 'panggung', 'petilasan', 'keramatnya', 'tegal', 'jawa', 'memelihara', 'anjing', 'berwarna']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['wali', 'kenal', 'sunan', 'panggung', 'tilas', 'keramat', 'tegal', 'jawa', 'pelihara', 'anjing', 'warna']</t>
+          <t>['pandi', 'bohong', 'omong', 'kosong', 'bullshit', 'bohong', 'peduli', 'nilai']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['pandi', 'bohong', 'omong', 'kosong', 'bullshit', 'bohong', 'peduli', 'nilai']</t>
         </is>
       </c>
     </row>
@@ -1691,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17278</v>
+        <v>28047</v>
       </c>
       <c r="C36" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>banyak yang coba bahas perilaku keji orang ini terhadap anjing pakai fikih masih terjebak kompleksitas ortodoksi</t>
+          <t>iya dua dinihari di awal terasa spt horormisteri biasa tapi di sepertiga terakhir novel ini meref</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['banyak', 'yang', 'coba', 'bahas', 'perilaku', 'keji', 'orang', 'ini', 'terhadap', 'anjing', 'pakai', 'fikih', 'masih', 'terjebak', 'kompleksitas', 'ortodoksi']</t>
+          <t>['iya', 'dua', 'dinihari', 'di', 'awal', 'terasa', 'spt', 'horormisteri', 'biasa', 'tapi', 'di', 'sepertiga', 'terakhir', 'novel', 'ini', 'meref']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['iya', 'dua', 'dini, hari', 'di', 'awal', 'terasa', 'surat, pemberitahuan, tahunan', 'horormisteri', 'biasa', 'tapi', 'di', 'sepertiga', 'terakhir', 'novel', 'ini', 'meref']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['coba', 'bahas', 'perilaku', 'keji', 'orang', 'anjing', 'pakai', 'fikih', 'terjebak', 'kompleksitas', 'ortodoksi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['coba', 'bahas', 'perilaku', 'keji', 'orang', 'anjing', 'pakai', 'fikih', 'jebak', 'kompleksitas', 'ortodoksi']</t>
+          <t>['iya', 'dini, hari', 'surat, pemberitahuan, tahunan', 'horormisteri', 'sepertiga', 'novel', 'meref']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['iya', 'dini hari', 'surat pemberitahuan tahun', 'horormisteri', 'tiga', 'novel', 'meref']</t>
         </is>
       </c>
     </row>
@@ -1727,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17279</v>
+        <v>28048</v>
       </c>
       <c r="C37" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>dams be damned he thinks he built dams but actually damned the people</t>
+          <t xml:space="preserve">sudah diterapkan di palembang dasarnya perkap edan memang restorative justice harus sangat </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['dams', 'be', 'damned', 'he', 'thinks', 'he', 'built', 'dams', 'but', 'actually', 'damned', 'the', 'people']</t>
+          <t>['sudah', 'diterapkan', 'di', 'palembang', 'dasarnya', 'perkap', 'edan', 'memang', 'restorative', 'justice', 'harus', 'sangat']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
+          <t>['sudah', 'diterapkan', 'di', 'palembang', 'dasarnya', 'perkap', 'edan', 'memang', 'restorative', 'justice', 'harus', 'sangat']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['dams', 'be', 'damned', 'he', 'thinks', 'he', 'built', 'dams', 'but', 'actually', 'damned', 'the', 'people']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['dams', 'be', 'damned', 'he', 'thinks', 'he', 'built', 'dams', 'but', 'actually', 'damned', 'the', 'people']</t>
+          <t>['diterapkan', 'palembang', 'dasarnya', 'perkap', 'edan', 'restorative', 'justice']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['terap', 'palembang', 'dasar', 'kap', 'edan', 'restorative', 'justice']</t>
         </is>
       </c>
     </row>
@@ -1763,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17280</v>
+        <v>28049</v>
       </c>
       <c r="C38" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">antimimesis ketika kenyataan justru mengimitasi fiksi oscar wilde menawarkan filosofi ini menentang </t>
+          <t>ini yang terjadi ketika politik kebijakan publik dioutsource ke kapital real estate</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['antimimesis', 'ketika', 'kenyataan', 'justru', 'mengimitasi', 'fiksi', 'oscar', 'wilde', 'menawarkan', 'filosofi', 'ini', 'menentang']</t>
+          <t>['ini', 'yang', 'terjadi', 'ketika', 'politik', 'kebijakan', 'publik', 'dioutsource', 'ke', 'kapital', 'real', 'estate']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['ini', 'yang', 'terjadi', 'ketika', 'politik', 'kebijakan', 'publik', 'dioutsource', 'ke', 'kapital', 'real', 'estate']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['antimimesis', 'kenyataan', 'mengimitasi', 'fiksi', 'oscar', 'wilde', 'menawarkan', 'filosofi', 'menentang']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['antimimesis', 'nyata', 'imitasi', 'fiksi', 'oscar', 'wilde', 'tawar', 'filosofi', 'tentang']</t>
+          <t>['politik', 'kebijakan', 'publik', 'dioutsource', 'kapital', 'real', 'estate']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['politik', 'bijak', 'publik', 'dioutsource', 'kapital', 'real', 'estate']</t>
         </is>
       </c>
     </row>
@@ -1799,34 +1997,35 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17281</v>
+        <v>28050</v>
       </c>
       <c r="C39" t="n">
-        <v>214</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>rt silahkan ikuti diskusi seputar serangan atas yaman yg sdh berjalan hari labih semoga bermanfaat podcast ind</t>
-        </is>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'silahkan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'atas', 'yaman', 'yg', 'sdh', 'berjalan', 'hari', 'labih', 'semoga', 'bermanfaat', 'podcast', 'ind']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['silahkan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'yaman', 'berjalan', 'labih', 'semoga', 'bermanfaat', 'podcast', 'ind']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['silah', 'ikut', 'diskusi', 'putar', 'serang', 'yaman', 'jalan', 'labih', 'moga', 'manfaat', 'podcast', 'ind']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1835,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17282</v>
+        <v>28051</v>
       </c>
       <c r="C40" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>soal kultur terkait dengan term skandinavia saya berpendapat finlandia masih skandin</t>
+          <t>sentul city bermasalah dlm pengelolaan air dan peralihan hak atas tanah konsumen sehingga konsumen terpaksa terlib</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['soal', 'kultur', 'terkait', 'dengan', 'term', 'skandinavia', 'saya', 'berpendapat', 'finlandia', 'masih', 'skandin']</t>
+          <t>['sentul', 'city', 'bermasalah', 'dlm', 'pengelolaan', 'air', 'dan', 'peralihan', 'hak', 'atas', 'tanah', 'konsumen', 'sehingga', 'konsumen', 'terpaksa', 'terlib']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['sentul', 'city', 'bermasalah', 'dalam', 'pengelolaan', 'air', 'dan', 'peralihan', 'hak', 'atas', 'tanah', 'konsumen', 'sehingga', 'konsumen', 'terpaksa', 'terlib']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['kultur', 'terkait', 'term', 'skandinavia', 'berpendapat', 'finlandia', 'skandin']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['kultur', 'kait', 'term', 'skandinavia', 'dapat', 'finlandia', 'skandin']</t>
+          <t>['sentul', 'city', 'bermasalah', 'pengelolaan', 'air', 'peralihan', 'hak', 'tanah', 'konsumen', 'konsumen', 'terpaksa', 'terlib']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['sentul', 'city', 'masalah', 'kelola', 'air', 'alih', 'hak', 'tanah', 'konsumen', 'konsumen', 'paksa', 'terlib']</t>
         </is>
       </c>
     </row>
@@ -1871,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17283</v>
+        <v>28052</v>
       </c>
       <c r="C41" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>sepertinya santai dan serius tak perlu dipertentangkan dalam twit pertama saya kesa</t>
+          <t>kedua pengembang terlibat masalah dengan warga baik penghuni maupun warga sekitar agung sedayu bermasalah dlm pro</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['sepertinya', 'santai', 'dan', 'serius', 'tak', 'perlu', 'dipertentangkan', 'dalam', 'twit', 'pertama', 'saya', 'kesa']</t>
+          <t>['kedua', 'pengembang', 'terlibat', 'masalah', 'dengan', 'warga', 'baik', 'penghuni', 'maupun', 'warga', 'sekitar', 'agung', 'sedayu', 'bermasalah', 'dlm', 'pro']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['kedua', 'pengembang', 'terlibat', 'masalah', 'dengan', 'warga', 'baik', 'penghuni', 'maupun', 'warga', 'sekitar', 'agung', 'sedayu', 'bermasalah', 'dalam', 'pro']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['santai', 'serius', 'dipertentangkan', 'twit', 'kesa']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['santai', 'serius', 'tentang', 'twit', 'kesa']</t>
+          <t>['pengembang', 'terlibat', 'warga', 'penghuni', 'warga', 'agung', 'sedayu', 'bermasalah', 'pro']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kembang', 'libat', 'warga', 'huni', 'warga', 'agung', 'dayu', 'masalah', 'pro']</t>
         </is>
       </c>
     </row>
@@ -1907,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17284</v>
+        <v>28053</v>
       </c>
       <c r="C42" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>saya bilang secara kultural bukan geografis</t>
+          <t xml:space="preserve">dua gergasi pengembang tampaknya menyumbangkan lahan untuk nu agung sedayu untuk rs di pik sentul city untuk </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['saya', 'bilang', 'secara', 'kultural', 'bukan', 'geografis']</t>
+          <t>['dua', 'gergasi', 'pengembang', 'tampaknya', 'menyumbangkan', 'lahan', 'untuk', 'nu', 'agung', 'sedayu', 'untuk', 'rs', 'di', 'pik', 'sentul', 'city', 'untuk']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['dua', 'gergasi', 'pengembang', 'tampaknya', 'menyumbangkan', 'lahan', 'untuk', 'nu', 'agung', 'sedayu', 'untuk', 'rumah, sakit', 'di', 'pik', 'sentul', 'city', 'untuk']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['kultural', 'geografis']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['kultural', 'geografis']</t>
+          <t>['gergasi', 'pengembang', 'menyumbangkan', 'lahan', 'nu', 'agung', 'sedayu', 'rumah, sakit', 'pik', 'sentul', 'city']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['gergasi', 'kembang', 'sumbang', 'lahan', 'nu', 'agung', 'dayu', 'rumah sakit', 'pik', 'sentul', 'city']</t>
         </is>
       </c>
     </row>
@@ -1943,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17285</v>
+        <v>28054</v>
       </c>
       <c r="C43" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>alumni itb menganggap din syamsuddin radikal adalah salah satu tanda kemunduran kualitas pendidikan</t>
+          <t>ameliaplath annemarie dlm buku itu menunjukkan bahwa teks suci islam yg menginspirasi tasawuf sara</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['alumni', 'itb', 'menganggap', 'din', 'syamsuddin', 'radikal', 'adalah', 'salah', 'satu', 'tanda', 'kemunduran', 'kualitas', 'pendidikan']</t>
+          <t>['ameliaplath', 'annemarie', 'dlm', 'buku', 'itu', 'menunjukkan', 'bahwa', 'teks', 'suci', 'islam', 'yg', 'menginspirasi', 'tasawuf', 'sara']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['ameliaplath', 'annemarie', 'dalam', 'buku', 'itu', 'menunjukkan', 'bahwa', 'teks', 'suci', 'islam', 'yang', 'menginspirasi', 'tasawuf', 'sara']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['alumni', 'itb', 'menganggap', 'din', 'syamsuddin', 'radikal', 'salah', 'tanda', 'kemunduran', 'kualitas', 'pendidikan']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['alumni', 'itb', 'anggap', 'din', 'syamsuddin', 'radikal', 'salah', 'tanda', 'mundur', 'kualitas', 'didik']</t>
+          <t>['ameliaplath', 'annemarie', 'buku', 'teks', 'suci', 'islam', 'menginspirasi', 'tasawuf', 'sara']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['ameliaplath', 'annemarie', 'buku', 'teks', 'suci', 'islam', 'inspirasi', 'tasawuf', 'sara']</t>
         </is>
       </c>
     </row>
@@ -1979,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17286</v>
+        <v>28055</v>
       </c>
       <c r="C44" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>terima kasih infonya saya mendapatkan kesan santai setelah baca buku sistem pendidikan finlandia</t>
+          <t>feminin secara substansial</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'infonya', 'saya', 'mendapatkan', 'kesan', 'santai', 'setelah', 'baca', 'buku', 'sistem', 'pendidikan', 'finlandia']</t>
+          <t>['feminin', 'secara', 'substansial']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['feminin', 'secara', 'substansial']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'infonya', 'kesan', 'santai', 'baca', 'buku', 'sistem', 'pendidikan', 'finlandia']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'info', 'kesan', 'santai', 'baca', 'buku', 'sistem', 'didik', 'finlandia']</t>
+          <t>['feminin', 'substansial']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['feminin', 'substansial']</t>
         </is>
       </c>
     </row>
@@ -2015,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17287</v>
+        <v>28056</v>
       </c>
       <c r="C45" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>it is just one of millions proof that police only serves the riches and elites</t>
+          <t>setuju tidak tepat menempatkan tni bersama lembaga sipil dlm soal public trust jangankan soal hukum dan peradilan</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['it', 'is', 'just', 'one', 'of', 'millions', 'proof', 'that', 'police', 'only', 'serves', 'the', 'riches', 'and', 'elites']</t>
+          <t>['setuju', 'tidak', 'tepat', 'menempatkan', 'tni', 'bersama', 'lembaga', 'sipil', 'dlm', 'soal', 'public', 'trust', 'jangankan', 'soal', 'hukum', 'dan', 'peradilan']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['setuju', 'tidak', 'tepat', 'menempatkan', 'tentara, nasional, indonesia', 'bersama', 'lembaga', 'sipil', 'dalam', 'soal', 'publik', 'trust', 'jangankan', 'soal', 'hukum', 'dan', 'peradilan']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['it', 'is', 'just', 'one', 'of', 'millions', 'proof', 'that', 'police', 'only', 'serves', 'the', 'riches', 'and', 'elites']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['it', 'is', 'just', 'one', 'of', 'millions', 'proof', 'that', 'police', 'only', 'serves', 'the', 'riches', 'and', 'elites']</t>
+          <t>['setuju', 'menempatkan', 'tentara, nasional, indonesia', 'lembaga', 'sipil', 'publik', 'trust', 'hukum', 'peradilan']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['tuju', 'tempat', 'tentara nasional indonesia', 'lembaga', 'sipil', 'publik', 'trust', 'hukum', 'adil']</t>
         </is>
       </c>
     </row>
@@ -2051,34 +2280,35 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17288</v>
+        <v>28057</v>
       </c>
       <c r="C46" t="n">
-        <v>214</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ya seperti dendammenarik dinanti tapi masih kalah jumlahnya sama filmfilm tentang mayit dan hantu gak jelas</t>
-        </is>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['ya', 'seperti', 'dendammenarik', 'dinanti', 'tapi', 'masih', 'kalah', 'jumlahnya', 'sama', 'filmfilm', 'tentang', 'mayit', 'dan', 'hantu', 'gak', 'jelas']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['dendammenarik', 'dinanti', 'kalah', 'filmfilm', 'mayit', 'hantu']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['dendammenarik', 'nanti', 'kalah', 'filmfilm', 'mayit', 'hantu']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2087,34 +2317,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17289</v>
+        <v>28058</v>
       </c>
       <c r="C47" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">dwilogi para priyayi karya umar kayam novelnovel baru juga lumayan banyak kalau mau yang thriller dan baru </t>
+          <t>bentuk sama warna sama gimana identifikasi kelompoknya dahsyat</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['dwilogi', 'para', 'priyayi', 'karya', 'umar', 'kayam', 'novelnovel', 'baru', 'juga', 'lumayan', 'banyak', 'kalau', 'mau', 'yang', 'thriller', 'dan', 'baru']</t>
+          <t>['bentuk', 'sama', 'warna', 'sama', 'gimana', 'identifikasi', 'kelompoknya', 'dahsyat']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['bentuk', 'sama', 'warna', 'sama', 'bagaimana', 'identifikasi', 'kelompoknya', 'dahsyat']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['dwilogi', 'priyayi', 'karya', 'umar', 'kayam', 'novelnovel', 'lumayan', 'thriller']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['dwilogi', 'priyayi', 'karya', 'umar', 'kayam', 'novelnovel', 'lumayan', 'thriller']</t>
+          <t>['bentuk', 'warna', 'identifikasi', 'kelompoknya', 'dahsyat']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['bentuk', 'warna', 'identifikasi', 'kelompok', 'dahsyat']</t>
         </is>
       </c>
     </row>
@@ -2123,34 +2358,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17290</v>
+        <v>28059</v>
       </c>
       <c r="C48" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>sebenarnya banyak novel indonesia yang bisa diadaptasi ke film terutama yang mengisahkan perkembangan karakternya</t>
+          <t>rt penegak hukum terima suap rp miliar lebih dituntut tahun lu kerja halal tahun juga mungkin belum tentu bisa da</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['sebenarnya', 'banyak', 'novel', 'indonesia', 'yang', 'bisa', 'diadaptasi', 'ke', 'film', 'terutama', 'yang', 'mengisahkan', 'perkembangan', 'karakternya']</t>
+          <t>['rt', 'penegak', 'hukum', 'terima', 'suap', 'rp', 'miliar', 'lebih', 'dituntut', 'tahun', 'lu', 'kerja', 'halal', 'tahun', 'juga', 'mungkin', 'belum', 'tentu', 'bisa', 'da']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'penegak', 'hukum', 'terima', 'suap', 'rupiah', 'miliar', 'lebih', 'dituntut', 'tahun', 'kamu', 'kerja', 'halal', 'tahun', 'juga', 'mungkin', 'belum', 'tentu', 'bisa', 'dan']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['novel', 'indonesia', 'diadaptasi', 'film', 'mengisahkan', 'perkembangan', 'karakternya']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['novel', 'indonesia', 'adaptasi', 'film', 'kisah', 'kembang', 'karakter']</t>
+          <t>['penegak', 'hukum', 'terima', 'suap', 'rupiah', 'miliar', 'dituntut', 'kerja', 'halal']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['tegak', 'hukum', 'terima', 'suap', 'rupiah', 'miliar', 'tuntut', 'kerja', 'halal']</t>
         </is>
       </c>
     </row>
@@ -2159,34 +2399,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17291</v>
+        <v>28060</v>
       </c>
       <c r="C49" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>tahun ini setidaknya film barat mengadaptasi novel memoar dan liputan jurnalistik dari the white tiger karya</t>
+          <t>rt not only is israel shirking its obligation under intnl law to provide vaccines to the occupied palestinian population bu</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['tahun', 'ini', 'setidaknya', 'film', 'barat', 'mengadaptasi', 'novel', 'memoar', 'dan', 'liputan', 'jurnalistik', 'dari', 'the', 'white', 'tiger', 'karya']</t>
+          <t>['rt', 'not', 'only', 'is', 'israel', 'shirking', 'its', 'obligation', 'under', 'intnl', 'law', 'to', 'provide', 'vaccines', 'to', 'the', 'occupied', 'palestinian', 'population', 'bu']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'not', 'only', 'is', 'israel', 'shirking', 'ini', 'obligation', 'under', 'intnl', 'law', 'to', 'provide', 'vaccines', 'to', 'the', 'occupied', 'palestinian', 'population', 'bu']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['film', 'barat', 'mengadaptasi', 'novel', 'memoar', 'liputan', 'jurnalistik', 'the', 'white', 'tiger', 'karya']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['film', 'barat', 'adaptasi', 'novel', 'memoar', 'liput', 'jurnalistik', 'the', 'white', 'tiger', 'karya']</t>
+          <t>['not', 'only', 'is', 'israel', 'shirking', 'obligation', 'under', 'intnl', 'law', 'to', 'provide', 'vaccines', 'to', 'the', 'occupied', 'palestinian', 'population', 'bu']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['not', 'only', 'is', 'israel', 'shirking', 'obligation', 'under', 'intnl', 'law', 'to', 'provide', 'vaccines', 'to', 'the', 'occupied', 'palestinian', 'population', 'bu']</t>
         </is>
       </c>
     </row>
@@ -2195,34 +2440,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17292</v>
+        <v>28061</v>
       </c>
       <c r="C50" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">orangorang di dunia pendidikan harus dibebaskan dari beban konsep metode atau instruksional segala macam dan </t>
+          <t>gaya khas menulis kang jalal adalah memulai dengan cerita bahkan di buku teks seperti psikologi komunikasi dia lal</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['orangorang', 'di', 'dunia', 'pendidikan', 'harus', 'dibebaskan', 'dari', 'beban', 'konsep', 'metode', 'atau', 'instruksional', 'segala', 'macam', 'dan']</t>
+          <t>['gaya', 'khas', 'menulis', 'kang', 'jalal', 'adalah', 'memulai', 'dengan', 'cerita', 'bahkan', 'di', 'buku', 'teks', 'seperti', 'psikologi', 'komunikasi', 'dia', 'lal']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['gaya', 'khas', 'menulis', 'kang', 'jalal', 'adalah', 'memulai', 'dengan', 'cerita', 'bahkan', 'di', 'buku', 'teks', 'seperti', 'psikologi', 'komunikasi', 'dia', 'lal']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['orangorang', 'dunia', 'pendidikan', 'dibebaskan', 'beban', 'konsep', 'metode', 'instruksional']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['orangorang', 'dunia', 'didik', 'bebas', 'beban', 'konsep', 'metode', 'instruksional']</t>
+          <t>['gaya', 'khas', 'menulis', 'kang', 'jalal', 'cerita', 'buku', 'teks', 'psikologi', 'komunikasi', 'lal']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['gaya', 'khas', 'tulis', 'kang', 'jalal', 'cerita', 'buku', 'teks', 'psikologi', 'komunikasi', 'lal']</t>
         </is>
       </c>
     </row>
@@ -2231,34 +2481,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17293</v>
+        <v>28062</v>
       </c>
       <c r="C51" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>negara skandinavia anggota oecd sudah sangat santai memandang pisa mereka enggak menyiapkan khusus siswanya ini</t>
+          <t>menulis buku adalah perjuangan mengerikan melelahkan seperti pertarungan panjang melawan penyakit yang menyakitk</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['negara', 'skandinavia', 'anggota', 'oecd', 'sudah', 'sangat', 'santai', 'memandang', 'pisa', 'mereka', 'enggak', 'menyiapkan', 'khusus', 'siswanya', 'ini']</t>
+          <t>['menulis', 'buku', 'adalah', 'perjuangan', 'mengerikan', 'melelahkan', 'seperti', 'pertarungan', 'panjang', 'melawan', 'penyakit', 'yang', 'menyakitk']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['menulis', 'buku', 'adalah', 'perjuangan', 'mengerikan', 'melelahkan', 'seperti', 'pertarungan', 'panjang', 'melawan', 'penyakit', 'yang', 'menyakitk']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['negara', 'skandinavia', 'anggota', 'oecd', 'santai', 'memandang', 'pisa', 'khusus', 'siswanya']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['negara', 'skandinavia', 'anggota', 'oecd', 'santai', 'pandang', 'pisa', 'khusus', 'siswa']</t>
+          <t>['menulis', 'buku', 'perjuangan', 'mengerikan', 'melelahkan', 'pertarungan', 'melawan', 'penyakit', 'menyakitk']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['tulis', 'buku', 'juang', 'keri', 'lelah', 'tarung', 'lawan', 'sakit', 'menyakitk']</t>
         </is>
       </c>
     </row>
@@ -2267,34 +2522,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17294</v>
+        <v>28063</v>
       </c>
       <c r="C52" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>yang mengejutkan dari kasus pd itu adalah kemiripannya dg cerpen horor karya koji suzuki pada yg kemudia</t>
+          <t>rt id pada februari dikabarkan meninggal dunia jalaluddin rakhmat dia penulis produktif buku psikologi komunikasi dan</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['yang', 'mengejutkan', 'dari', 'kasus', 'pd', 'itu', 'adalah', 'kemiripannya', 'dg', 'cerpen', 'horor', 'karya', 'koji', 'suzuki', 'pada', 'yg', 'kemudia']</t>
+          <t>['rt', 'id', 'pada', 'februari', 'dikabarkan', 'meninggal', 'dunia', 'jalaluddin', 'rakhmat', 'dia', 'penulis', 'produktif', 'buku', 'psikologi', 'komunikasi', 'dan']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['rt', 'id', 'pada', 'februari', 'dikabarkan', 'meninggal', 'dunia', 'jalaluddin', 'rakhmat', 'dia', 'penulis', 'produktif', 'buku', 'psikologi', 'komunikasi', 'dan']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['mengejutkan', 'pd', 'kemiripannya', 'cerpen', 'horor', 'karya', 'koji', 'suzuki', 'kemudia']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['kejut', 'pd', 'mirip', 'cerpen', 'horor', 'karya', 'koji', 'suzuki', 'kemudia']</t>
+          <t>['id', 'februari', 'dikabarkan', 'meninggal', 'dunia', 'jalaluddin', 'rakhmat', 'penulis', 'produktif', 'buku', 'psikologi', 'komunikasi']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['id', 'februari', 'kabar', 'tinggal', 'dunia', 'jalaluddin', 'rakhmat', 'tulis', 'produktif', 'buku', 'psikologi', 'komunikasi']</t>
         </is>
       </c>
     </row>
@@ -2303,34 +2563,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17295</v>
+        <v>28064</v>
       </c>
       <c r="C53" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>netflix menayangkan dokumentet the vanishing at cecil hotel yang al memceritakan kasus kematian elisa lam yang</t>
+          <t>bentuk eksekusinya dibakar hiduphidup tapi api rupanya enggan menjilat sang wali seinci pun sunan panggung kelu</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['netflix', 'menayangkan', 'dokumentet', 'the', 'vanishing', 'at', 'cecil', 'hotel', 'yang', 'al', 'memceritakan', 'kasus', 'kematian', 'elisa', 'lam', 'yang']</t>
+          <t>['bentuk', 'eksekusinya', 'dibakar', 'hiduphidup', 'tapi', 'api', 'rupanya', 'enggan', 'menjilat', 'sang', 'wali', 'seinci', 'pun', 'sunan', 'panggung', 'kelu']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['bentuk', 'eksekusinya', 'dibakar', 'hiduphidup', 'tapi', 'api', 'rupanya', 'enggan', 'menjilat', 'sang', 'wali', 'satu, inci', 'pun', 'sunan', 'panggung', 'kelu']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['netflix', 'menayangkan', 'dokumentet', 'the', 'vanishing', 'at', 'cecil', 'hotel', 'al', 'memceritakan', 'kematian', 'elisa', 'lam']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['netflix', 'tayang', 'dokumentet', 'the', 'vanishing', 'at', 'cecil', 'hotel', 'al', 'memceritakan', 'mati', 'elisa', 'lam']</t>
+          <t>['bentuk', 'eksekusinya', 'dibakar', 'hiduphidup', 'api', 'enggan', 'menjilat', 'sang', 'wali', 'satu, inci', 'sunan', 'panggung', 'kelu']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['bentuk', 'eksekusi', 'bakar', 'hiduphidup', 'api', 'enggan', 'jilat', 'sang', 'wali', 'satu inci', 'sunan', 'panggung', 'kelu']</t>
         </is>
       </c>
     </row>
@@ -2339,34 +2604,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17296</v>
+        <v>28065</v>
       </c>
       <c r="C54" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ingin tahu apa sih filmfilm indonesia yang tengah beredar ternyata juduljudulnya rasuk misteri ayunan nenek</t>
+          <t>sebuah kitab bernama suluk malang sumirang dinisbatkan kepada wali ini isinya syairsyair yang menentang ortodoksi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['ingin', 'tahu', 'apa', 'sih', 'filmfilm', 'indonesia', 'yang', 'tengah', 'beredar', 'ternyata', 'juduljudulnya', 'rasuk', 'misteri', 'ayunan', 'nenek']</t>
+          <t>['sebuah', 'kitab', 'bernama', 'suluk', 'malang', 'sumirang', 'dinisbatkan', 'kepada', 'wali', 'ini', 'isinya', 'syairsyair', 'yang', 'menentang', 'ortodoksi']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['sebuah', 'kitab', 'bernama', 'suluk', 'malang', 'sumirang', 'dinisbatkan', 'kepada', 'wali', 'ini', 'isinya', 'syairsyair', 'yang', 'menentang', 'ortodoksi']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['filmfilm', 'indonesia', 'beredar', 'juduljudulnya', 'rasuk', 'misteri', 'ayunan', 'nenek']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['filmfilm', 'indonesia', 'edar', 'juduljudulnya', 'rasuk', 'misteri', 'ayun', 'nenek']</t>
+          <t>['kitab', 'bernama', 'suluk', 'malang', 'sumirang', 'dinisbatkan', 'wali', 'isinya', 'syairsyair', 'menentang', 'ortodoksi']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['kitab', 'nama', 'suluk', 'malang', 'sumirang', 'dinisbatkan', 'wali', 'isi', 'syairsyair', 'tentang', 'ortodoksi']</t>
         </is>
       </c>
     </row>
@@ -2375,34 +2645,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17297</v>
+        <v>28066</v>
       </c>
       <c r="C55" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>real estate itu dunia gelap serba tak jelas karena bisa dikaburkan dgn fulus kasus pkpu ini pelajaran bagi kon</t>
+          <t>wali itu dikenal sunan panggung petilasan keramatnya di tegal jawa tengah dia memelihara anjing satu berwarna</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['real', 'estate', 'itu', 'dunia', 'gelap', 'serba', 'tak', 'jelas', 'karena', 'bisa', 'dikaburkan', 'dgn', 'fulus', 'kasus', 'pkpu', 'ini', 'pelajaran', 'bagi', 'kon']</t>
+          <t>['wali', 'itu', 'dikenal', 'sunan', 'panggung', 'petilasan', 'keramatnya', 'di', 'tegal', 'jawa', 'tengah', 'dia', 'memelihara', 'anjing', 'satu', 'berwarna']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['wali', 'itu', 'dikenal', 'sunan', 'panggung', 'petilasan', 'keramatnya', 'di', 'tegal', 'jawa', 'tengah', 'dia', 'memelihara', 'anjing', 'satu', 'berwarna']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['real', 'estate', 'dunia', 'gelap', 'serba', 'dikaburkan', 'fulus', 'pkpu', 'pelajaran', 'kon']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['real', 'estate', 'dunia', 'gelap', 'serba', 'kabur', 'fulus', 'pkpu', 'ajar', 'kon']</t>
+          <t>['wali', 'dikenal', 'sunan', 'panggung', 'petilasan', 'keramatnya', 'tegal', 'jawa', 'memelihara', 'anjing', 'berwarna']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['wali', 'kenal', 'sunan', 'panggung', 'tilas', 'keramat', 'tegal', 'jawa', 'pelihara', 'anjing', 'warna']</t>
         </is>
       </c>
     </row>
@@ -2411,34 +2686,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17298</v>
+        <v>28067</v>
       </c>
       <c r="C56" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>rt sekujur badan herman penuh lukaluka telinga kiri hampir putus dan mengeluarkan darah tangan kirinya patah di punggung herm</t>
+          <t>banyak yang coba bahas perilaku keji orang ini terhadap anjing pakai fikih masih terjebak kompleksitas ortodoksi</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['rt', 'sekujur', 'badan', 'herman', 'penuh', 'lukaluka', 'telinga', 'kiri', 'hampir', 'putus', 'dan', 'mengeluarkan', 'darah', 'tangan', 'kirinya', 'patah', 'di', 'punggung', 'herm']</t>
+          <t>['banyak', 'yang', 'coba', 'bahas', 'perilaku', 'keji', 'orang', 'ini', 'terhadap', 'anjing', 'pakai', 'fikih', 'masih', 'terjebak', 'kompleksitas', 'ortodoksi']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['banyak', 'yang', 'coba', 'bahas', 'perilaku', 'keji', 'orang', 'ini', 'terhadap', 'anjing', 'pakai', 'fikih', 'masih', 'terjebak', 'kompleksitas', 'ortodoksi']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['sekujur', 'badan', 'herman', 'penuh', 'lukaluka', 'telinga', 'kiri', 'putus', 'mengeluarkan', 'darah', 'tangan', 'kirinya', 'patah', 'punggung', 'herm']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['kujur', 'badan', 'herman', 'penuh', 'lukaluka', 'telinga', 'kiri', 'putus', 'keluar', 'darah', 'tangan', 'kiri', 'patah', 'punggung', 'herm']</t>
+          <t>['coba', 'bahas', 'perilaku', 'keji', 'orang', 'anjing', 'pakai', 'fikih', 'terjebak', 'kompleksitas', 'ortodoksi']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['coba', 'bahas', 'perilaku', 'keji', 'orang', 'anjing', 'pakai', 'fikih', 'jebak', 'kompleksitas', 'ortodoksi']</t>
         </is>
       </c>
     </row>
@@ -2447,34 +2727,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17299</v>
+        <v>28068</v>
       </c>
       <c r="C57" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>melanggar uu mata uang enggak nih emang gila nih fenomena bitcoin akhir tahun seingat saya masih di angka</t>
+          <t>dams be damned he thinks he built dams but actually damned the people</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['melanggar', 'uu', 'mata', 'uang', 'enggak', 'nih', 'emang', 'gila', 'nih', 'fenomena', 'bitcoin', 'akhir', 'tahun', 'seingat', 'saya', 'masih', 'di', 'angka']</t>
+          <t>['dams', 'be', 'damned', 'he', 'thinks', 'he', 'built', 'dams', 'but', 'actually', 'damned', 'the', 'people']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['dams', 'be', 'damned', 'he', 'thinks', 'he', 'built', 'dams', 'but', 'actually', 'damned', 'the', 'people']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['melanggar', 'uu', 'mata', 'uang', 'emang', 'gila', 'fenomena', 'bitcoin', 'angka']</t>
+          <t>&lt;FreqDist with 10 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['langgar', 'uu', 'mata', 'uang', 'emang', 'gila', 'fenomena', 'bitcoin', 'angka']</t>
+          <t>['dams', 'be', 'damned', 'he', 'thinks', 'he', 'built', 'dams', 'but', 'actually', 'damned', 'the', 'people']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['dams', 'be', 'damned', 'he', 'thinks', 'he', 'built', 'dams', 'but', 'actually', 'damned', 'the', 'people']</t>
         </is>
       </c>
     </row>
@@ -2483,34 +2768,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17300</v>
+        <v>28069</v>
       </c>
       <c r="C58" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>maklumin aja inggris bukan bahasa pertama dia substansi twitnya bagus</t>
+          <t xml:space="preserve">antimimesis ketika kenyataan justru mengimitasi fiksi oscar wilde menawarkan filosofi ini menentang </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['maklumin', 'aja', 'inggris', 'bukan', 'bahasa', 'pertama', 'dia', 'substansi', 'twitnya', 'bagus']</t>
+          <t>['antimimesis', 'ketika', 'kenyataan', 'justru', 'mengimitasi', 'fiksi', 'oscar', 'wilde', 'menawarkan', 'filosofi', 'ini', 'menentang']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['antimimesis', 'ketika', 'kenyataan', 'justru', 'mengimitasi', 'fiksi', 'oscar', 'wilde', 'menawarkan', 'filosofi', 'ini', 'menentang']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['maklumin', 'inggris', 'bahasa', 'substansi', 'twitnya', 'bagus']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['maklumin', 'inggris', 'bahasa', 'substansi', 'twitnya', 'bagus']</t>
+          <t>['antimimesis', 'kenyataan', 'mengimitasi', 'fiksi', 'oscar', 'wilde', 'menawarkan', 'filosofi', 'menentang']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['antimimesis', 'nyata', 'imitasi', 'fiksi', 'oscar', 'wilde', 'tawar', 'filosofi', 'tentang']</t>
         </is>
       </c>
     </row>
@@ -2519,34 +2809,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17301</v>
+        <v>28070</v>
       </c>
       <c r="C59" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>poin yg ingin diklaim di twit pertama kan ada pengakuan as bahwa itu image dari satelit matamata iran</t>
+          <t>rt silahkan ikuti diskusi seputar serangan atas yaman yg sdh berjalan hari labih semoga bermanfaat podcast ind</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['poin', 'yg', 'ingin', 'diklaim', 'di', 'twit', 'pertama', 'kan', 'ada', 'pengakuan', 'as', 'bahwa', 'itu', 'image', 'dari', 'satelit', 'matamata', 'iran']</t>
+          <t>['rt', 'silahkan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'atas', 'yaman', 'yg', 'sdh', 'berjalan', 'hari', 'labih', 'semoga', 'bermanfaat', 'podcast', 'ind']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'silakan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'atas', 'yaman', 'yang', 'sudah', 'berjalan', 'hari', 'lebih', 'semoga', 'bermanfaat', 'podcast', 'indonesia']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['poin', 'diklaim', 'twit', 'pengakuan', 'as', 'image', 'satelit', 'matamata', 'iran']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['poin', 'klaim', 'twit', 'aku', 'as', 'image', 'satelit', 'matamata', 'iran']</t>
+          <t>['silakan', 'ikuti', 'diskusi', 'seputar', 'serangan', 'yaman', 'berjalan', 'semoga', 'bermanfaat', 'podcast', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['sila', 'ikut', 'diskusi', 'putar', 'serang', 'yaman', 'jalan', 'moga', 'manfaat', 'podcast', 'indonesia']</t>
         </is>
       </c>
     </row>
@@ -2555,34 +2850,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17302</v>
+        <v>28071</v>
       </c>
       <c r="C60" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>hehehe lagipula enggak ada itu yang namanya pengakuan as tentang image itu cuma orang iseng bikin ga</t>
+          <t>soal kultur terkait dengan term skandinavia saya berpendapat finlandia masih skandin</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['hehehe', 'lagipula', 'enggak', 'ada', 'itu', 'yang', 'namanya', 'pengakuan', 'as', 'tentang', 'image', 'itu', 'cuma', 'orang', 'iseng', 'bikin', 'ga']</t>
+          <t>['soal', 'kultur', 'terkait', 'dengan', 'term', 'skandinavia', 'saya', 'berpendapat', 'finlandia', 'masih', 'skandin']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['soal', 'kultur', 'terkait', 'dengan', 'term', 'skandinavia', 'saya', 'berpendapat', 'finlandia', 'masih', 'skandin']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['hehehe', 'lagipula', 'namanya', 'pengakuan', 'as', 'image', 'orang', 'iseng']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['hehehe', 'lagipula', 'nama', 'aku', 'as', 'image', 'orang', 'iseng']</t>
+          <t>['kultur', 'terkait', 'term', 'skandinavia', 'berpendapat', 'finlandia', 'skandin']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['kultur', 'kait', 'term', 'skandinavia', 'dapat', 'finlandia', 'skandin']</t>
         </is>
       </c>
     </row>
@@ -2591,34 +2891,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17303</v>
+        <v>28072</v>
       </c>
       <c r="C61" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>syarat dan ketentuan berlaku</t>
+          <t>sepertinya santai dan serius tak perlu dipertentangkan dalam twit pertama saya kesa</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['syarat', 'dan', 'ketentuan', 'berlaku']</t>
+          <t>['sepertinya', 'santai', 'dan', 'serius', 'tak', 'perlu', 'dipertentangkan', 'dalam', 'twit', 'pertama', 'saya', 'kesa']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sepertinya', 'santai', 'dan', 'serius', 'tak', 'perlu', 'dipertentangkan', 'dalam', 'twit', 'pertama', 'saya', 'kesa']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['syarat', 'ketentuan', 'berlaku']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['syarat', 'tentu', 'laku']</t>
+          <t>['santai', 'serius', 'dipertentangkan', 'twit', 'kesa']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['santai', 'serius', 'tentang', 'twit', 'kesa']</t>
         </is>
       </c>
     </row>
@@ -2627,34 +2932,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17304</v>
+        <v>28073</v>
       </c>
       <c r="C62" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>rt id the digakan membawa anda ke level permahaman berbeda tentang arkeologi yang kadung telah digambarkan oleh film semacam</t>
+          <t>saya bilang secara kultural bukan geografis</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'the', 'digakan', 'membawa', 'anda', 'ke', 'level', 'permahaman', 'berbeda', 'tentang', 'arkeologi', 'yang', 'kadung', 'telah', 'digambarkan', 'oleh', 'film', 'semacam']</t>
+          <t>['saya', 'bilang', 'secara', 'kultural', 'bukan', 'geografis']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['saya', 'bilang', 'secara', 'kultural', 'bukan', 'geografis']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['id', 'the', 'digakan', 'membawa', 'level', 'permahaman', 'berbeda', 'arkeologi', 'kadung', 'digambarkan', 'film']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['id', 'the', 'digakan', 'bawa', 'level', 'permahaman', 'beda', 'arkeologi', 'kadung', 'gambar', 'film']</t>
+          <t>['kultural', 'geografis']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['kultural', 'geografis']</t>
         </is>
       </c>
     </row>
@@ -2663,34 +2973,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17305</v>
+        <v>28074</v>
       </c>
       <c r="C63" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>jangan lupa satu lagi kesamaannya samasama hasil pemilu</t>
+          <t>alumni itb menganggap din syamsuddin radikal adalah salah satu tanda kemunduran kualitas pendidikan</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['jangan', 'lupa', 'satu', 'lagi', 'kesamaannya', 'samasama', 'hasil', 'pemilu']</t>
+          <t>['alumni', 'itb', 'menganggap', 'din', 'syamsuddin', 'radikal', 'adalah', 'salah', 'satu', 'tanda', 'kemunduran', 'kualitas', 'pendidikan']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['alumni', 'institut, teknologi, bandung', 'menganggap', 'din', 'syamsuddin', 'radikal', 'adalah', 'salah', 'satu', 'tanda', 'kemunduran', 'kualitas', 'pendidikan']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['lupa', 'kesamaannya', 'samasama', 'hasil', 'pemilu']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['lupa', 'sama', 'samasama', 'hasil', 'milu']</t>
+          <t>['alumni', 'institut, teknologi, bandung', 'menganggap', 'din', 'syamsuddin', 'radikal', 'salah', 'tanda', 'kemunduran', 'kualitas', 'pendidikan']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['alumni', 'institut teknologi bandung', 'anggap', 'din', 'syamsuddin', 'radikal', 'salah', 'tanda', 'mundur', 'kualitas', 'didik']</t>
         </is>
       </c>
     </row>
@@ -2699,34 +3014,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17306</v>
+        <v>28075</v>
       </c>
       <c r="C64" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>hujan radikal prokhilafah kadrun</t>
+          <t>terima kasih infonya saya mendapatkan kesan santai setelah baca buku sistem pendidikan finlandia</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['hujan', 'radikal', 'prokhilafah', 'kadrun']</t>
+          <t>['terima', 'kasih', 'infonya', 'saya', 'mendapatkan', 'kesan', 'santai', 'setelah', 'baca', 'buku', 'sistem', 'pendidikan', 'finlandia']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'infonya', 'saya', 'mendapatkan', 'kesan', 'santai', 'setelah', 'baca', 'buku', 'sistem', 'pendidikan', 'finlandia']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['hujan', 'radikal', 'prokhilafah', 'kadrun']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['hujan', 'radikal', 'prokhilafah', 'kadrun']</t>
+          <t>['terima', 'kasih', 'infonya', 'kesan', 'santai', 'baca', 'buku', 'sistem', 'pendidikan', 'finlandia']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'info', 'kesan', 'santai', 'baca', 'buku', 'sistem', 'didik', 'finlandia']</t>
         </is>
       </c>
     </row>
@@ -2735,34 +3055,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17307</v>
+        <v>28076</v>
       </c>
       <c r="C65" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>sumber kemampuan iran luncurkan satelit nour sudah diakui pentagon tapi sampai spying begitu detail</t>
+          <t>it is just one of millions proof that police only serves the riches and elites</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['sumber', 'kemampuan', 'iran', 'luncurkan', 'satelit', 'nour', 'sudah', 'diakui', 'pentagon', 'tapi', 'sampai', 'spying', 'begitu', 'detail']</t>
+          <t>['it', 'is', 'just', 'one', 'of', 'millions', 'proof', 'that', 'police', 'only', 'serves', 'the', 'riches', 'and', 'elites']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['it', 'is', 'just', 'one', 'of', 'millions', 'proof', 'that', 'police', 'only', 'serves', 'the', 'riches', 'and', 'elites']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['sumber', 'kemampuan', 'iran', 'luncurkan', 'satelit', 'nour', 'diakui', 'pentagon', 'spying', 'detail']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['sumber', 'mampu', 'iran', 'luncur', 'satelit', 'nour', 'aku', 'pentagon', 'spying', 'detail']</t>
+          <t>['it', 'is', 'just', 'one', 'of', 'millions', 'proof', 'that', 'police', 'only', 'serves', 'the', 'riches', 'and', 'elites']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['it', 'is', 'just', 'one', 'of', 'millions', 'proof', 'that', 'police', 'only', 'serves', 'the', 'riches', 'and', 'elites']</t>
         </is>
       </c>
     </row>
@@ -2771,34 +3096,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17308</v>
+        <v>28077</v>
       </c>
       <c r="C66" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>rt id perlawanan perempuan dalam sihir perempuan karya intan paramaditha berasal dari kedalaman jiwa mereka jiwa mereka bis</t>
+          <t>ya seperti dendammenarik dinanti tapi masih kalah jumlahnya sama filmfilm tentang mayit dan hantu gak jelas</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['rt', 'id', 'perlawanan', 'perempuan', 'dalam', 'sihir', 'perempuan', 'karya', 'intan', 'paramaditha', 'berasal', 'dari', 'kedalaman', 'jiwa', 'mereka', 'jiwa', 'mereka', 'bis']</t>
+          <t>['ya', 'seperti', 'dendammenarik', 'dinanti', 'tapi', 'masih', 'kalah', 'jumlahnya', 'sama', 'filmfilm', 'tentang', 'mayit', 'dan', 'hantu', 'gak', 'jelas']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
+          <t>['ya', 'seperti', 'dendammenarik', 'dinanti', 'tapi', 'masih', 'kalah', 'jumlahnya', 'sama', 'filmfilm', 'tentang', 'mayit', 'dan', 'hantu', 'tidak', 'jelas']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['id', 'perlawanan', 'perempuan', 'sihir', 'perempuan', 'karya', 'intan', 'paramaditha', 'berasal', 'kedalaman', 'jiwa', 'jiwa', 'bis']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['id', 'lawan', 'perempuan', 'sihir', 'perempuan', 'karya', 'intan', 'paramaditha', 'asal', 'dalam', 'jiwa', 'jiwa', 'bis']</t>
+          <t>['dendammenarik', 'dinanti', 'kalah', 'filmfilm', 'mayit', 'hantu']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['dendammenarik', 'nanti', 'kalah', 'filmfilm', 'mayit', 'hantu']</t>
         </is>
       </c>
     </row>
@@ -2807,34 +3137,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17309</v>
+        <v>28078</v>
       </c>
       <c r="C67" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt bukan ini bukan kejadian tahun an saat operasi petrus atau an awal saat marsinah tewas ini kejadian tahun </t>
+          <t xml:space="preserve">dwilogi para priyayi karya umar kayam novelnovel baru juga lumayan banyak kalau mau yang thriller dan baru </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'bukan', 'ini', 'bukan', 'kejadian', 'tahun', 'an', 'saat', 'operasi', 'petrus', 'atau', 'an', 'awal', 'saat', 'marsinah', 'tewas', 'ini', 'kejadian', 'tahun']</t>
+          <t>['dwilogi', 'para', 'priyayi', 'karya', 'umar', 'kayam', 'novelnovel', 'baru', 'juga', 'lumayan', 'banyak', 'kalau', 'mau', 'yang', 'thriller', 'dan', 'baru']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
+          <t>['dwilogi', 'para', 'priyayi', 'karya', 'umar', 'kayam', 'novelnovel', 'baru', 'juga', 'lumayan', 'banyak', 'kalau', 'mau', 'yang', 'thriller', 'dan', 'baru']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['kejadian', 'an', 'operasi', 'petrus', 'an', 'marsinah', 'tewas', 'kejadian']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['jadi', 'an', 'operasi', 'petrus', 'an', 'marsinah', 'tewas', 'jadi']</t>
+          <t>['dwilogi', 'priyayi', 'karya', 'umar', 'kayam', 'novelnovel', 'lumayan', 'thriller']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['dwilogi', 'priyayi', 'karya', 'umar', 'kayam', 'novelnovel', 'lumayan', 'thriller']</t>
         </is>
       </c>
     </row>
@@ -2843,34 +3178,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17310</v>
+        <v>28079</v>
       </c>
       <c r="C68" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>di masa depan imo alat tukar makin tak bisa dikontrol negara pada saat krisis moneter tak sedikit eko</t>
+          <t>sebenarnya banyak novel indonesia yang bisa diadaptasi ke film terutama yang mengisahkan perkembangan karakternya</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['di', 'masa', 'depan', 'imo', 'alat', 'tukar', 'makin', 'tak', 'bisa', 'dikontrol', 'negara', 'pada', 'saat', 'krisis', 'moneter', 'tak', 'sedikit', 'eko']</t>
+          <t>['sebenarnya', 'banyak', 'novel', 'indonesia', 'yang', 'bisa', 'diadaptasi', 'ke', 'film', 'terutama', 'yang', 'mengisahkan', 'perkembangan', 'karakternya']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['sebenarnya', 'banyak', 'novel', 'indonesia', 'yang', 'bisa', 'diadaptasi', 'ke', 'film', 'terutama', 'yang', 'mengisahkan', 'perkembangan', 'karakternya']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['imo', 'alat', 'tukar', 'dikontrol', 'negara', 'krisis', 'moneter', 'eko']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['imo', 'alat', 'tukar', 'kontrol', 'negara', 'krisis', 'moneter', 'eko']</t>
+          <t>['novel', 'indonesia', 'diadaptasi', 'film', 'mengisahkan', 'perkembangan', 'karakternya']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['novel', 'indonesia', 'adaptasi', 'film', 'kisah', 'kembang', 'karakter']</t>
         </is>
       </c>
     </row>
@@ -2879,34 +3219,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17311</v>
+        <v>28080</v>
       </c>
       <c r="C69" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>lebih baik kepada klub bola ketimbang politisi dan partai kita bisa makimaki klub itu seenak udel tanpa harus dil</t>
+          <t>tahun ini setidaknya film barat mengadaptasi novel memoar dan liputan jurnalistik dari the white tiger karya</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['lebih', 'baik', 'kepada', 'klub', 'bola', 'ketimbang', 'politisi', 'dan', 'partai', 'kita', 'bisa', 'makimaki', 'klub', 'itu', 'seenak', 'udel', 'tanpa', 'harus', 'dil']</t>
+          <t>['tahun', 'ini', 'setidaknya', 'film', 'barat', 'mengadaptasi', 'novel', 'memoar', 'dan', 'liputan', 'jurnalistik', 'dari', 'the', 'white', 'tiger', 'karya']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['tahun', 'ini', 'setidaknya', 'film', 'barat', 'mengadaptasi', 'novel', 'memoar', 'dan', 'liputan', 'jurnalistik', 'dari', 'the', 'white', 'tiger', 'karya']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['klub', 'bola', 'ketimbang', 'politisi', 'partai', 'makimaki', 'klub', 'seenak', 'udel', 'dil']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['klub', 'bola', 'ketimbang', 'politis', 'partai', 'makimaki', 'klub', 'enak', 'udel', 'dil']</t>
+          <t>['film', 'barat', 'mengadaptasi', 'novel', 'memoar', 'liputan', 'jurnalistik', 'the', 'white', 'tiger', 'karya']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['film', 'barat', 'adaptasi', 'novel', 'memoar', 'liput', 'jurnalistik', 'the', 'white', 'tiger', 'karya']</t>
         </is>
       </c>
     </row>
@@ -2915,34 +3260,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17312</v>
+        <v>28081</v>
       </c>
       <c r="C70" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>bukan hanya agung sedayu ini sudah jadi modus sejumlah pengembang besar tujuannya bukan semata menang di pengadil</t>
+          <t xml:space="preserve">orangorang di dunia pendidikan harus dibebaskan dari beban konsep metode atau instruksional segala macam dan </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['bukan', 'hanya', 'agung', 'sedayu', 'ini', 'sudah', 'jadi', 'modus', 'sejumlah', 'pengembang', 'besar', 'tujuannya', 'bukan', 'semata', 'menang', 'di', 'pengadil']</t>
+          <t>['orangorang', 'di', 'dunia', 'pendidikan', 'harus', 'dibebaskan', 'dari', 'beban', 'konsep', 'metode', 'atau', 'instruksional', 'segala', 'macam', 'dan']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['orangorang', 'di', 'dunia', 'pendidikan', 'harus', 'dibebaskan', 'dari', 'beban', 'konsep', 'metode', 'atau', 'instruksional', 'segala', 'macam', 'dan']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['agung', 'sedayu', 'modus', 'pengembang', 'tujuannya', 'menang', 'pengadil']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['agung', 'dayu', 'modus', 'kembang', 'tuju', 'menang', 'adil']</t>
+          <t>['orangorang', 'dunia', 'pendidikan', 'dibebaskan', 'beban', 'konsep', 'metode', 'instruksional']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['orangorang', 'dunia', 'didik', 'bebas', 'beban', 'konsep', 'metode', 'instruksional']</t>
         </is>
       </c>
     </row>
@@ -2951,34 +3301,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17313</v>
+        <v>28082</v>
       </c>
       <c r="C71" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt trend syariah yang digenjot negara duitnya mau model syariahnya pilihpilih yang enak tapi gejala ini membuka ruang politik</t>
+          <t>negara skandinavia anggota oecd sudah sangat santai memandang pisa mereka enggak menyiapkan khusus siswanya ini</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'trend', 'syariah', 'yang', 'digenjot', 'negara', 'duitnya', 'mau', 'model', 'syariahnya', 'pilihpilih', 'yang', 'enak', 'tapi', 'gejala', 'ini', 'membuka', 'ruang', 'politik']</t>
+          <t>['negara', 'skandinavia', 'anggota', 'oecd', 'sudah', 'sangat', 'santai', 'memandang', 'pisa', 'mereka', 'enggak', 'menyiapkan', 'khusus', 'siswanya', 'ini']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['negara', 'skandinavia', 'anggota', 'oecd', 'sudah', 'sangat', 'santai', 'memandang', 'pisa', 'mereka', 'tidak', 'menyiapkan', 'khusus', 'siswanya', 'ini']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['trend', 'syariah', 'digenjot', 'negara', 'duitnya', 'model', 'syariahnya', 'pilihpilih', 'enak', 'gejala', 'membuka', 'ruang', 'politik']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['trend', 'syariah', 'genjot', 'negara', 'duit', 'model', 'syariahnya', 'pilihpilih', 'enak', 'gejala', 'buka', 'ruang', 'politik']</t>
+          <t>['negara', 'skandinavia', 'anggota', 'oecd', 'santai', 'memandang', 'pisa', 'khusus', 'siswanya']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['negara', 'skandinavia', 'anggota', 'oecd', 'santai', 'pandang', 'pisa', 'khusus', 'siswa']</t>
         </is>
       </c>
     </row>
@@ -2987,34 +3342,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17314</v>
+        <v>28083</v>
       </c>
       <c r="C72" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>kita seringkali terpukau oleh kebaikan dan idealisme palsu tapi membenci keburukan yang jujur</t>
+          <t>yang mengejutkan dari kasus pd itu adalah kemiripannya dg cerpen horor karya koji suzuki pada yg kemudia</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['kita', 'seringkali', 'terpukau', 'oleh', 'kebaikan', 'dan', 'idealisme', 'palsu', 'tapi', 'membenci', 'keburukan', 'yang', 'jujur']</t>
+          <t>['yang', 'mengejutkan', 'dari', 'kasus', 'pd', 'itu', 'adalah', 'kemiripannya', 'dg', 'cerpen', 'horor', 'karya', 'koji', 'suzuki', 'pada', 'yg', 'kemudia']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['yang', 'mengejutkan', 'dari', 'kasus', 'pada', 'itu', 'adalah', 'kemiripannya', 'dengan', 'cerpen', 'horor', 'karya', 'koji', 'suzuki', 'pada', 'yang', 'kemudia']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['seringkali', 'terpukau', 'kebaikan', 'idealisme', 'palsu', 'membenci', 'keburukan', 'jujur']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['seringkali', 'pukau', 'baik', 'idealisme', 'palsu', 'benci', 'keburu', 'jujur']</t>
+          <t>['mengejutkan', 'kemiripannya', 'cerpen', 'horor', 'karya', 'koji', 'suzuki', 'kemudia']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['kejut', 'mirip', 'cerpen', 'horor', 'karya', 'koji', 'suzuki', 'kemudia']</t>
         </is>
       </c>
     </row>
@@ -3023,34 +3383,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17315</v>
+        <v>28084</v>
       </c>
       <c r="C73" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>terlepas dari uang negara atau bukan pengakuan ini baguslah daripada ngakungaku demi perjuangan toleransi demi</t>
+          <t>netflix menayangkan dokumentet the vanishing at cecil hotel yang al memceritakan kasus kematian elisa lam yang</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['terlepas', 'dari', 'uang', 'negara', 'atau', 'bukan', 'pengakuan', 'ini', 'baguslah', 'daripada', 'ngakungaku', 'demi', 'perjuangan', 'toleransi', 'demi']</t>
+          <t>['netflix', 'menayangkan', 'dokumentet', 'the', 'vanishing', 'at', 'cecil', 'hotel', 'yang', 'al', 'memceritakan', 'kasus', 'kematian', 'elisa', 'lam', 'yang']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['netflix', 'menayangkan', 'dokumentet', 'the', 'vanishing', 'at', 'cecil', 'hotel', 'yang', 'al', 'memceritakan', 'kasus', 'kematian', 'elisa', 'salam', 'yang']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['terlepas', 'uang', 'negara', 'pengakuan', 'baguslah', 'ngakungaku', 'perjuangan', 'toleransi']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['lepas', 'uang', 'negara', 'aku', 'bagus', 'ngakungaku', 'juang', 'toleransi']</t>
+          <t>['netflix', 'menayangkan', 'dokumentet', 'the', 'vanishing', 'at', 'cecil', 'hotel', 'al', 'memceritakan', 'kematian', 'elisa', 'salam']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['netflix', 'tayang', 'dokumentet', 'the', 'vanishing', 'at', 'cecil', 'hotel', 'al', 'memceritakan', 'mati', 'elisa', 'salam']</t>
         </is>
       </c>
     </row>
@@ -3059,34 +3424,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17316</v>
+        <v>28085</v>
       </c>
       <c r="C74" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>rt silahkan mengikuti diskusi kami seputar mengapa islam berbeda semoga bermanfaat podcast indonesia mengapa islam berbeda</t>
+          <t>ingin tahu apa sih filmfilm indonesia yang tengah beredar ternyata juduljudulnya rasuk misteri ayunan nenek</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['rt', 'silahkan', 'mengikuti', 'diskusi', 'kami', 'seputar', 'mengapa', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'mengapa', 'islam', 'berbeda']</t>
+          <t>['ingin', 'tahu', 'apa', 'sih', 'filmfilm', 'indonesia', 'yang', 'tengah', 'beredar', 'ternyata', 'juduljudulnya', 'rasuk', 'misteri', 'ayunan', 'nenek']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
+          <t>['ingin', 'tahu', 'apa', 'sih', 'filmfilm', 'indonesia', 'yang', 'tengah', 'beredar', 'ternyata', 'juduljudulnya', 'rasuk', 'misteri', 'ayunan', 'nenek']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['silahkan', 'mengikuti', 'diskusi', 'seputar', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'islam', 'berbeda']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['silah', 'ikut', 'diskusi', 'putar', 'islam', 'beda', 'moga', 'manfaat', 'podcast', 'indonesia', 'islam', 'beda']</t>
+          <t>['filmfilm', 'indonesia', 'beredar', 'juduljudulnya', 'rasuk', 'misteri', 'ayunan', 'nenek']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['filmfilm', 'indonesia', 'edar', 'juduljudulnya', 'rasuk', 'misteri', 'ayun', 'nenek']</t>
         </is>
       </c>
     </row>
@@ -3095,34 +3465,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17317</v>
+        <v>28086</v>
       </c>
       <c r="C75" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>liputan menarik tentang perjuangan saintis rusia mengembangkan vaksin covid dan bagaimana pemilihan namanya mas</t>
+          <t>real estate itu dunia gelap serba tak jelas karena bisa dikaburkan dgn fulus kasus pkpu ini pelajaran bagi kon</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['liputan', 'menarik', 'tentang', 'perjuangan', 'saintis', 'rusia', 'mengembangkan', 'vaksin', 'covid', 'dan', 'bagaimana', 'pemilihan', 'namanya', 'mas']</t>
+          <t>['real', 'estate', 'itu', 'dunia', 'gelap', 'serba', 'tak', 'jelas', 'karena', 'bisa', 'dikaburkan', 'dgn', 'fulus', 'kasus', 'pkpu', 'ini', 'pelajaran', 'bagi', 'kon']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['real', 'estate', 'itu', 'dunia', 'gelap', 'serba', 'tak', 'jelas', 'karena', 'bisa', 'dikaburkan', 'dengan', 'fulus', 'kasus', 'pkpu', 'ini', 'pelajaran', 'bagi', 'kon']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['liputan', 'menarik', 'perjuangan', 'saintis', 'rusia', 'mengembangkan', 'vaksin', 'covid', 'pemilihan', 'namanya', 'mas']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['liput', 'tarik', 'juang', 'saintis', 'rusia', 'kembang', 'vaksin', 'covid', 'pilih', 'nama', 'mas']</t>
+          <t>['real', 'estate', 'dunia', 'gelap', 'serba', 'dikaburkan', 'fulus', 'pkpu', 'pelajaran', 'kon']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['real', 'estate', 'dunia', 'gelap', 'serba', 'kabur', 'fulus', 'pkpu', 'ajar', 'kon']</t>
         </is>
       </c>
     </row>
@@ -3131,34 +3506,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17318</v>
+        <v>28087</v>
       </c>
       <c r="C76" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>all  wanna say is that they dont care about us</t>
+          <t>rt sekujur badan herman penuh lukaluka telinga kiri hampir putus dan mengeluarkan darah tangan kirinya patah di punggung herm</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['all', 'wan', 'na', 'say', 'is', 'that', 'they', 'dont', 'care', 'about', 'us']</t>
+          <t>['rt', 'sekujur', 'badan', 'herman', 'penuh', 'lukaluka', 'telinga', 'kiri', 'hampir', 'putus', 'dan', 'mengeluarkan', 'darah', 'tangan', 'kirinya', 'patah', 'di', 'punggung', 'herm']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'sekujur', 'badan', 'herman', 'penuh', 'lukaluka', 'telinga', 'kiri', 'hampir', 'putus', 'dan', 'mengeluarkan', 'darah', 'tangan', 'kirinya', 'patah', 'di', 'punggung', 'herm']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['all', 'wan', 'na', 'say', 'is', 'that', 'they', 'dont', 'care', 'about', 'us']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['all', 'wan', 'na', 'say', 'is', 'that', 'they', 'dont', 'care', 'about', 'us']</t>
+          <t>['sekujur', 'badan', 'herman', 'penuh', 'lukaluka', 'telinga', 'kiri', 'putus', 'mengeluarkan', 'darah', 'tangan', 'kirinya', 'patah', 'punggung', 'herm']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['kujur', 'badan', 'herman', 'penuh', 'lukaluka', 'telinga', 'kiri', 'putus', 'keluar', 'darah', 'tangan', 'kiri', 'patah', 'punggung', 'herm']</t>
         </is>
       </c>
     </row>
@@ -3167,34 +3547,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17319</v>
+        <v>28088</v>
       </c>
       <c r="C77" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>aung san suu kyi menjadi contoh sempurna kutipan martin niemoller</t>
+          <t>melanggar uu mata uang enggak nih emang gila nih fenomena bitcoin akhir tahun seingat saya masih di angka</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['aung', 'san', 'suu', 'kyi', 'menjadi', 'contoh', 'sempurna', 'kutipan', 'martin', 'niemoller']</t>
+          <t>['melanggar', 'uu', 'mata', 'uang', 'enggak', 'nih', 'emang', 'gila', 'nih', 'fenomena', 'bitcoin', 'akhir', 'tahun', 'seingat', 'saya', 'masih', 'di', 'angka']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['melanggar', 'undang, undang', 'mata', 'uang', 'tidak', 'nih', 'memang', 'gila', 'nih', 'fenomena', 'bitcoin', 'akhir', 'tahun', 'seingat', 'saya', 'masih', 'di', 'angka']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['aung', 'san', 'suu', 'kyi', 'contoh', 'sempurna', 'kutipan', 'martin', 'niemoller']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['aung', 'san', 'suu', 'kyi', 'contoh', 'sempurna', 'kutip', 'martin', 'niemoller']</t>
+          <t>['melanggar', 'undang, undang', 'mata', 'uang', 'gila', 'fenomena', 'bitcoin', 'angka']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['langgar', 'undang undang', 'mata', 'uang', 'gila', 'fenomena', 'bitcoin', 'angka']</t>
         </is>
       </c>
     </row>
@@ -3203,34 +3588,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17320</v>
+        <v>28089</v>
       </c>
       <c r="C78" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">di awal pandemi rezim modi sempat dikritik keras terkait kelambanan bertindak dan diskriminasi antara lain oleh </t>
+          <t>maklumin aja inggris bukan bahasa pertama dia substansi twitnya bagus</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['di', 'awal', 'pandemi', 'rezim', 'modi', 'sempat', 'dikritik', 'keras', 'terkait', 'kelambanan', 'bertindak', 'dan', 'diskriminasi', 'antara', 'lain', 'oleh']</t>
+          <t>['maklumin', 'aja', 'inggris', 'bukan', 'bahasa', 'pertama', 'dia', 'substansi', 'twitnya', 'bagus']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['maklumkan', 'saja', 'inggris', 'bukan', 'bahasa', 'pertama', 'dia', 'substansi', 'twitnya', 'bagus']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['pandemi', 'rezim', 'modi', 'dikritik', 'keras', 'terkait', 'kelambanan', 'bertindak', 'diskriminasi']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['pandemi', 'rezim', 'modi', 'kritik', 'keras', 'kait', 'lamban', 'tindak', 'diskriminasi']</t>
+          <t>['maklumkan', 'inggris', 'bahasa', 'substansi', 'twitnya', 'bagus']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['maklum', 'inggris', 'bahasa', 'substansi', 'twitnya', 'bagus']</t>
         </is>
       </c>
     </row>
@@ -3239,34 +3629,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17321</v>
+        <v>28090</v>
       </c>
       <c r="C79" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>pilihan orang ini menggunakan kata islam alihalih kelompok atau pandangan muslim tertentu mirip dengan gaya argu</t>
+          <t>poin yg ingin diklaim di twit pertama kan ada pengakuan as bahwa itu image dari satelit matamata iran</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['pilihan', 'orang', 'ini', 'menggunakan', 'kata', 'islam', 'alihalih', 'kelompok', 'atau', 'pandangan', 'muslim', 'tertentu', 'mirip', 'dengan', 'gaya', 'argu']</t>
+          <t>['poin', 'yg', 'ingin', 'diklaim', 'di', 'twit', 'pertama', 'kan', 'ada', 'pengakuan', 'as', 'bahwa', 'itu', 'image', 'dari', 'satelit', 'matamata', 'iran']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['poin', 'yang', 'ingin', 'diklaim', 'di', 'twit', 'pertama', 'kan', 'ada', 'pengakuan', 'as', 'bahwa', 'itu', 'citra', 'dari', 'satelit', 'matamata', 'iran']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['pilihan', 'orang', 'islam', 'alihalih', 'kelompok', 'pandangan', 'muslim', 'gaya', 'argu']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['pilih', 'orang', 'islam', 'alihalih', 'kelompok', 'pandang', 'muslim', 'gaya', 'argu']</t>
+          <t>['poin', 'diklaim', 'twit', 'pengakuan', 'as', 'citra', 'satelit', 'matamata', 'iran']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['poin', 'klaim', 'twit', 'aku', 'as', 'citra', 'satelit', 'matamata', 'iran']</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3670,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17322</v>
+        <v>28091</v>
       </c>
       <c r="C80" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>salah satu yang menarik dari buku ini adalah ulasan hegghammer atas pembunuhan azzam pada november setelah so</t>
+          <t>hehehe lagipula enggak ada itu yang namanya pengakuan as tentang image itu cuma orang iseng bikin ga</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['salah', 'satu', 'yang', 'menarik', 'dari', 'buku', 'ini', 'adalah', 'ulasan', 'hegghammer', 'atas', 'pembunuhan', 'azzam', 'pada', 'november', 'setelah', 'so']</t>
+          <t>['hehehe', 'lagipula', 'enggak', 'ada', 'itu', 'yang', 'namanya', 'pengakuan', 'as', 'tentang', 'image', 'itu', 'cuma', 'orang', 'iseng', 'bikin', 'ga']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['hehe', 'lagi, pula', 'tidak', 'ada', 'itu', 'yang', 'namanya', 'pengakuan', 'as', 'tentang', 'citra', 'itu', 'cuma', 'orang', 'iseng', 'bikin', 'tidak']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['salah', 'menarik', 'buku', 'ulasan', 'hegghammer', 'pembunuhan', 'azzam', 'november', 'so']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['salah', 'tarik', 'buku', 'ulas', 'hegghammer', 'bunuh', 'azzam', 'november', 'so']</t>
+          <t>['lagi, pula', 'namanya', 'pengakuan', 'as', 'citra', 'orang', 'iseng']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['lagi pula', 'nama', 'aku', 'as', 'citra', 'orang', 'iseng']</t>
         </is>
       </c>
     </row>
@@ -3311,34 +3711,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17323</v>
+        <v>28092</v>
       </c>
       <c r="C81" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>dia hidup di apartemen bawah tanah rumah mewah hingga guagua berteman dengan aktivis islam hingga bertemu para</t>
+          <t>syarat dan ketentuan berlaku</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['dia', 'hidup', 'di', 'apartemen', 'bawah', 'tanah', 'rumah', 'mewah', 'hingga', 'guagua', 'berteman', 'dengan', 'aktivis', 'islam', 'hingga', 'bertemu', 'para']</t>
+          <t>['syarat', 'dan', 'ketentuan', 'berlaku']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['syarat', 'dan', 'ketentuan', 'berlaku']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['hidup', 'apartemen', 'tanah', 'rumah', 'mewah', 'guagua', 'berteman', 'aktivis', 'islam', 'bertemu']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['hidup', 'apartemen', 'tanah', 'rumah', 'mewah', 'guagua', 'teman', 'aktivis', 'islam', 'temu']</t>
+          <t>['syarat', 'ketentuan', 'berlaku']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['syarat', 'tentu', 'laku']</t>
         </is>
       </c>
     </row>
@@ -3347,34 +3752,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17324</v>
+        <v>28093</v>
       </c>
       <c r="C82" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>kehidupan azzam menurut hegghammer seperti kenyataan yang lebih aneh daripada fiksi dari seorang petani di palesti</t>
+          <t>rt id the digakan membawa anda ke level permahaman berbeda tentang arkeologi yang kadung telah digambarkan oleh film semacam</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['kehidupan', 'azzam', 'menurut', 'hegghammer', 'seperti', 'kenyataan', 'yang', 'lebih', 'aneh', 'daripada', 'fiksi', 'dari', 'seorang', 'petani', 'di', 'palesti']</t>
+          <t>['rt', 'id', 'the', 'digakan', 'membawa', 'anda', 'ke', 'level', 'permahaman', 'berbeda', 'tentang', 'arkeologi', 'yang', 'kadung', 'telah', 'digambarkan', 'oleh', 'film', 'semacam']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'id', 'the', 'digakan', 'membawa', 'anda', 'ke', 'level', 'permahaman', 'berbeda', 'tentang', 'arkeologi', 'yang', 'kadung', 'telah', 'digambarkan', 'oleh', 'film', 'semacam']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['kehidupan', 'azzam', 'hegghammer', 'kenyataan', 'aneh', 'fiksi', 'petani', 'palesti']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['hidup', 'azzam', 'hegghammer', 'nyata', 'aneh', 'fiksi', 'tani', 'palesti']</t>
+          <t>['id', 'the', 'digakan', 'membawa', 'level', 'permahaman', 'berbeda', 'arkeologi', 'kadung', 'digambarkan', 'film']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['id', 'the', 'digakan', 'bawa', 'level', 'permahaman', 'beda', 'arkeologi', 'kadung', 'gambar', 'film']</t>
         </is>
       </c>
     </row>
@@ -3383,34 +3793,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17325</v>
+        <v>28094</v>
       </c>
       <c r="C83" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">meski buku ini tebal membacanya tak bosan hegghammer menulis dengan gaya bercerita ini dimungkinkan karena dia </t>
+          <t>jangan lupa satu lagi kesamaannya samasama hasil pemilu</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['meski', 'buku', 'ini', 'tebal', 'membacanya', 'tak', 'bosan', 'hegghammer', 'menulis', 'dengan', 'gaya', 'bercerita', 'ini', 'dimungkinkan', 'karena', 'dia']</t>
+          <t>['jangan', 'lupa', 'satu', 'lagi', 'kesamaannya', 'samasama', 'hasil', 'pemilu']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['jangan', 'lupa', 'satu', 'lagi', 'kesamaannya', 'samasama', 'hasil', 'pemilihan, umum']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['buku', 'tebal', 'membacanya', 'bosan', 'hegghammer', 'menulis', 'gaya', 'bercerita']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['buku', 'tebal', 'baca', 'bosan', 'hegghammer', 'tulis', 'gaya', 'cerita']</t>
+          <t>['lupa', 'kesamaannya', 'samasama', 'hasil', 'pemilihan, umum']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['lupa', 'sama', 'samasama', 'hasil', 'pilih umum']</t>
         </is>
       </c>
     </row>
@@ -3419,34 +3834,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17326</v>
+        <v>28095</v>
       </c>
       <c r="C84" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>melalui tulisan dan ceramah serta upaya mobilisasinya terbangunlah jaringan jihad global di afghanistan pada peran</t>
+          <t>hujan radikal prokhilafah kadrun</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['melalui', 'tulisan', 'dan', 'ceramah', 'serta', 'upaya', 'mobilisasinya', 'terbangunlah', 'jaringan', 'jihad', 'global', 'di', 'afghanistan', 'pada', 'peran']</t>
+          <t>['hujan', 'radikal', 'prokhilafah', 'kadrun']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['hujan', 'radikal', 'prokhilafah', 'kadrun']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['tulisan', 'ceramah', 'upaya', 'mobilisasinya', 'terbangunlah', 'jaringan', 'jihad', 'global', 'afghanistan', 'peran']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['tulis', 'ceramah', 'upaya', 'mobilisasi', 'bangun', 'jaring', 'jihad', 'global', 'afghanistan', 'peran']</t>
+          <t>['hujan', 'radikal', 'prokhilafah', 'kadrun']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['hujan', 'radikal', 'prokhilafah', 'kadrun']</t>
         </is>
       </c>
     </row>
@@ -3455,34 +3875,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17327</v>
+        <v>28096</v>
       </c>
       <c r="C85" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>buku ini biografi komprehensif abdullah azzam bapak spiritual para jihadis hegghammer punya sebutan untuknya isl</t>
+          <t>sumber kemampuan iran luncurkan satelit nour sudah diakui pentagon tapi sampai spying begitu detail</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['buku', 'ini', 'biografi', 'komprehensif', 'abdullah', 'azzam', 'bapak', 'spiritual', 'para', 'jihadis', 'hegghammer', 'punya', 'sebutan', 'untuknya', 'isl']</t>
+          <t>['sumber', 'kemampuan', 'iran', 'luncurkan', 'satelit', 'nour', 'sudah', 'diakui', 'pentagon', 'tapi', 'sampai', 'spying', 'begitu', 'detail']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['sumber', 'kemampuan', 'iran', 'luncurkan', 'satelit', 'nour', 'sudah', 'diakui', 'pentagon', 'tapi', 'sampai', 'spying', 'begitu', 'detail']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['buku', 'biografi', 'komprehensif', 'abdullah', 'azzam', 'spiritual', 'jihadis', 'hegghammer', 'sebutan', 'untuknya', 'isl']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['buku', 'biografi', 'komprehensif', 'abdullah', 'azzam', 'spiritual', 'jihad', 'hegghammer', 'sebut', 'untuk', 'isl']</t>
+          <t>['sumber', 'kemampuan', 'iran', 'luncurkan', 'satelit', 'nour', 'diakui', 'pentagon', 'spying', 'detail']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['sumber', 'mampu', 'iran', 'luncur', 'satelit', 'nour', 'aku', 'pentagon', 'spying', 'detail']</t>
         </is>
       </c>
     </row>
@@ -3491,34 +3916,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17328</v>
+        <v>28097</v>
       </c>
       <c r="C86" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>setelah membaca buku an halaman dan ukuran hampir  ini saya mencoba mengulasnya ini buku hasil penelitian</t>
+          <t>rt id perlawanan perempuan dalam sihir perempuan karya intan paramaditha berasal dari kedalaman jiwa mereka jiwa mereka bis</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['setelah', 'membaca', 'buku', 'an', 'halaman', 'dan', 'ukuran', 'hampir', 'ini', 'saya', 'mencoba', 'mengulasnya', 'ini', 'buku', 'hasil', 'penelitian']</t>
+          <t>['rt', 'id', 'perlawanan', 'perempuan', 'dalam', 'sihir', 'perempuan', 'karya', 'intan', 'paramaditha', 'berasal', 'dari', 'kedalaman', 'jiwa', 'mereka', 'jiwa', 'mereka', 'bis']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'id', 'perlawanan', 'perempuan', 'dalam', 'sihir', 'perempuan', 'karya', 'intan', 'paramaditha', 'berasal', 'dari', 'kedalaman', 'jiwa', 'mereka', 'jiwa', 'mereka', 'bis']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['membaca', 'buku', 'an', 'halaman', 'ukuran', 'mencoba', 'mengulasnya', 'buku', 'hasil', 'penelitian']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['baca', 'buku', 'an', 'halaman', 'ukur', 'coba', 'ulas', 'buku', 'hasil', 'teliti']</t>
+          <t>['id', 'perlawanan', 'perempuan', 'sihir', 'perempuan', 'karya', 'intan', 'paramaditha', 'berasal', 'kedalaman', 'jiwa', 'jiwa', 'bis']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['id', 'lawan', 'perempuan', 'sihir', 'perempuan', 'karya', 'intan', 'paramaditha', 'asal', 'dalam', 'jiwa', 'jiwa', 'bis']</t>
         </is>
       </c>
     </row>
@@ -3527,34 +3957,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17329</v>
+        <v>28098</v>
       </c>
       <c r="C87" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">dalam tafsir ibn katsir yang pertama pada ayat surah an naml memang dinisbatkan </t>
+          <t xml:space="preserve">rt bukan ini bukan kejadian tahun an saat operasi petrus atau an awal saat marsinah tewas ini kejadian tahun </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['dalam', 'tafsir', 'ibn', 'katsir', 'yang', 'pertama', 'pada', 'ayat', 'surah', 'an', 'naml', 'memang', 'dinisbatkan']</t>
+          <t>['rt', 'bukan', 'ini', 'bukan', 'kejadian', 'tahun', 'an', 'saat', 'operasi', 'petrus', 'atau', 'an', 'awal', 'saat', 'marsinah', 'tewas', 'ini', 'kejadian', 'tahun']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['rt', 'bukan', 'ini', 'bukan', 'kejadian', 'tahun', 'an', 'saat', 'operasi', 'petrus', 'atau', 'an', 'awal', 'saat', 'marsinah', 'tewas', 'ini', 'kejadian', 'tahun']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['tafsir', 'ibn', 'katsir', 'ayat', 'surah', 'an', 'naml', 'dinisbatkan']</t>
+          <t>&lt;FreqDist with 13 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['tafsir', 'ibn', 'katsir', 'ayat', 'surah', 'an', 'naml', 'dinisbatkan']</t>
+          <t>['kejadian', 'an', 'operasi', 'petrus', 'an', 'marsinah', 'tewas', 'kejadian']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['jadi', 'an', 'operasi', 'petrus', 'an', 'marsinah', 'tewas', 'jadi']</t>
         </is>
       </c>
     </row>
@@ -3563,34 +3998,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17330</v>
+        <v>28099</v>
       </c>
       <c r="C88" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>karena itu saya suka kagum dengan orangorang yg rela antre untuk beli produk mahal keluaran terbaru demi harga di</t>
+          <t>di masa depan imo alat tukar makin tak bisa dikontrol negara pada saat krisis moneter tak sedikit eko</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['karena', 'itu', 'saya', 'suka', 'kagum', 'dengan', 'orangorang', 'yg', 'rela', 'antre', 'untuk', 'beli', 'produk', 'mahal', 'keluaran', 'terbaru', 'demi', 'harga', 'di']</t>
+          <t>['di', 'masa', 'depan', 'imo', 'alat', 'tukar', 'makin', 'tak', 'bisa', 'dikontrol', 'negara', 'pada', 'saat', 'krisis', 'moneter', 'tak', 'sedikit', 'eko']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['di', 'masa', 'depan', 'imo', 'alat', 'tukar', 'makin', 'tak', 'bisa', 'dikontrol', 'negara', 'pada', 'saat', 'krisis', 'moneter', 'tak', 'sedikit', 'eko']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['suka', 'kagum', 'orangorang', 'rela', 'antre', 'beli', 'produk', 'mahal', 'keluaran', 'terbaru', 'harga']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['suka', 'kagum', 'orangorang', 'rela', 'antre', 'beli', 'produk', 'mahal', 'keluar', 'baru', 'harga']</t>
+          <t>['imo', 'alat', 'tukar', 'dikontrol', 'negara', 'krisis', 'moneter', 'eko']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['imo', 'alat', 'tukar', 'kontrol', 'negara', 'krisis', 'moneter', 'eko']</t>
         </is>
       </c>
     </row>
@@ -3599,34 +4039,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17331</v>
+        <v>28100</v>
       </c>
       <c r="C89" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>muka tanah turun seiring politisi makin kehilangan muka</t>
+          <t>lebih baik kepada klub bola ketimbang politisi dan partai kita bisa makimaki klub itu seenak udel tanpa harus dil</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['muka', 'tanah', 'turun', 'seiring', 'politisi', 'makin', 'kehilangan', 'muka']</t>
+          <t>['lebih', 'baik', 'kepada', 'klub', 'bola', 'ketimbang', 'politisi', 'dan', 'partai', 'kita', 'bisa', 'makimaki', 'klub', 'itu', 'seenak', 'udel', 'tanpa', 'harus', 'dil']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['lebih', 'baik', 'kepada', 'klub', 'bola', 'ketimbang', 'politisi', 'dan', 'partai', 'kita', 'bisa', 'makimaki', 'klub', 'itu', 'seenak', 'udel', 'tanpa', 'harus', 'dil']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['muka', 'tanah', 'turun', 'seiring', 'politisi', 'kehilangan', 'muka']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['muka', 'tanah', 'turun', 'iring', 'politis', 'hilang', 'muka']</t>
+          <t>['klub', 'bola', 'ketimbang', 'politisi', 'partai', 'makimaki', 'klub', 'seenak', 'udel', 'dil']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['klub', 'bola', 'ketimbang', 'politis', 'partai', 'makimaki', 'klub', 'enak', 'udel', 'dil']</t>
         </is>
       </c>
     </row>
@@ -3635,34 +4080,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17332</v>
+        <v>28101</v>
       </c>
       <c r="C90" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>lha dia yg buat film orang lain yang disuruh cari</t>
+          <t>bukan hanya agung sedayu ini sudah jadi modus sejumlah pengembang besar tujuannya bukan semata menang di pengadil</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['lha', 'dia', 'yg', 'buat', 'film', 'orang', 'lain', 'yang', 'disuruh', 'cari']</t>
+          <t>['bukan', 'hanya', 'agung', 'sedayu', 'ini', 'sudah', 'jadi', 'modus', 'sejumlah', 'pengembang', 'besar', 'tujuannya', 'bukan', 'semata', 'menang', 'di', 'pengadil']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['bukan', 'hanya', 'agung', 'sedayu', 'ini', 'sudah', 'jadi', 'modus', 'sejumlah', 'pengembang', 'besar', 'tujuannya', 'bukan', 'semata', 'menang', 'di', 'pengadil']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['lha', 'film', 'orang', 'disuruh', 'cari']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['lha', 'film', 'orang', 'suruh', 'cari']</t>
+          <t>['agung', 'sedayu', 'modus', 'pengembang', 'tujuannya', 'menang', 'pengadil']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['agung', 'dayu', 'modus', 'kembang', 'tuju', 'menang', 'adil']</t>
         </is>
       </c>
     </row>
@@ -3671,34 +4121,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17333</v>
+        <v>28102</v>
       </c>
       <c r="C91" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ngomongngomong soal maaf membuat saya teringat dengan karakter mpok minah dalam sitcom bajaj bajuri karakter it</t>
+          <t>rt trend syariah yang digenjot negara duitnya mau model syariahnya pilihpilih yang enak tapi gejala ini membuka ruang politik</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['ngomongngomong', 'soal', 'maaf', 'membuat', 'saya', 'teringat', 'dengan', 'karakter', 'mpok', 'minah', 'dalam', 'sitcom', 'bajaj', 'bajuri', 'karakter', 'it']</t>
+          <t>['rt', 'trend', 'syariah', 'yang', 'digenjot', 'negara', 'duitnya', 'mau', 'model', 'syariahnya', 'pilihpilih', 'yang', 'enak', 'tapi', 'gejala', 'ini', 'membuka', 'ruang', 'politik']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'tren', 'syariat', 'yang', 'digenjot', 'negara', 'duitnya', 'mau', 'model', 'syariahnya', 'pilihpilih', 'yang', 'enak', 'tapi', 'gejala', 'ini', 'membuka', 'ruang', 'politik']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['ngomongngomong', 'maaf', 'karakter', 'mpok', 'minah', 'sitcom', 'bajaj', 'bajuri', 'karakter', 'it']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['ngomongngomong', 'maaf', 'karakter', 'mpok', 'mah', 'sitcom', 'bajaj', 'bajuri', 'karakter', 'it']</t>
+          <t>['tren', 'syariat', 'digenjot', 'negara', 'duitnya', 'model', 'syariahnya', 'pilihpilih', 'enak', 'gejala', 'membuka', 'ruang', 'politik']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['tren', 'syariat', 'genjot', 'negara', 'duit', 'model', 'syariahnya', 'pilihpilih', 'enak', 'gejala', 'buka', 'ruang', 'politik']</t>
         </is>
       </c>
     </row>
@@ -3707,34 +4162,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17334</v>
+        <v>28103</v>
       </c>
       <c r="C92" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>itu budaya berbahasa secara psikologi orang yang susah minta maaf salah satunya adalah karena ego dan banggadi</t>
+          <t>kita seringkali terpukau oleh kebaikan dan idealisme palsu tapi membenci keburukan yang jujur</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['itu', 'budaya', 'berbahasa', 'secara', 'psikologi', 'orang', 'yang', 'susah', 'minta', 'maaf', 'salah', 'satunya', 'adalah', 'karena', 'ego', 'dan', 'banggadi']</t>
+          <t>['kita', 'seringkali', 'terpukau', 'oleh', 'kebaikan', 'dan', 'idealisme', 'palsu', 'tapi', 'membenci', 'keburukan', 'yang', 'jujur']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['kita', 'seringkali', 'terpukau', 'oleh', 'kebaikan', 'dan', 'idealisme', 'palsu', 'tapi', 'membenci', 'keburukan', 'yang', 'jujur']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['budaya', 'berbahasa', 'psikologi', 'orang', 'susah', 'maaf', 'salah', 'satunya', 'ego', 'banggadi']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['budaya', 'bahasa', 'psikologi', 'orang', 'susah', 'maaf', 'salah', 'satu', 'ego', 'banggadi']</t>
+          <t>['seringkali', 'terpukau', 'kebaikan', 'idealisme', 'palsu', 'membenci', 'keburukan', 'jujur']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['seringkali', 'pukau', 'baik', 'idealisme', 'palsu', 'benci', 'keburu', 'jujur']</t>
         </is>
       </c>
     </row>
@@ -3743,34 +4203,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17335</v>
+        <v>28104</v>
       </c>
       <c r="C93" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>pernah baca riset british mengatakan sorry rerata kalihari mereka bisa katakan sorry untuk cuaca buruk atau ter</t>
+          <t>terlepas dari uang negara atau bukan pengakuan ini baguslah daripada ngakungaku demi perjuangan toleransi demi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['pernah', 'baca', 'riset', 'british', 'mengatakan', 'sorry', 'rerata', 'kalihari', 'mereka', 'bisa', 'katakan', 'sorry', 'untuk', 'cuaca', 'buruk', 'atau', 'ter']</t>
+          <t>['terlepas', 'dari', 'uang', 'negara', 'atau', 'bukan', 'pengakuan', 'ini', 'baguslah', 'daripada', 'ngakungaku', 'demi', 'perjuangan', 'toleransi', 'demi']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['terlepas', 'dari', 'uang', 'negara', 'atau', 'bukan', 'pengakuan', 'ini', 'baguslah', 'daripada', 'ngakungaku', 'demi', 'perjuangan', 'toleransi', 'demi']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['baca', 'riset', 'british', 'sorry', 'rerata', 'kalihari', 'sorry', 'cuaca', 'buruk', 'ter']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['baca', 'riset', 'british', 'sorry', 'rerata', 'kalihari', 'sorry', 'cuaca', 'buruk', 'ter']</t>
+          <t>['terlepas', 'uang', 'negara', 'pengakuan', 'baguslah', 'ngakungaku', 'perjuangan', 'toleransi']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['lepas', 'uang', 'negara', 'aku', 'bagus', 'ngakungaku', 'juang', 'toleransi']</t>
         </is>
       </c>
     </row>
@@ -3779,34 +4244,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17336</v>
+        <v>28105</v>
       </c>
       <c r="C94" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>cara pandang seperti disindir oleh alquran surah alfajr ayat pembahasan lengkapnya bisa dilihat di sini</t>
+          <t>rt silahkan mengikuti diskusi kami seputar mengapa islam berbeda semoga bermanfaat podcast indonesia mengapa islam berbeda</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['cara', 'pandang', 'seperti', 'disindir', 'oleh', 'alquran', 'surah', 'alfajr', 'ayat', 'pembahasan', 'lengkapnya', 'bisa', 'dilihat', 'di', 'sini']</t>
+          <t>['rt', 'silahkan', 'mengikuti', 'diskusi', 'kami', 'seputar', 'mengapa', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'mengapa', 'islam', 'berbeda']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['rt', 'silakan', 'mengikuti', 'diskusi', 'kami', 'seputar', 'mengapa', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'mengapa', 'islam', 'berbeda']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['pandang', 'disindir', 'alquran', 'surah', 'alfajr', 'ayat', 'pembahasan', 'lengkapnya']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['pandang', 'sindir', 'alquran', 'surah', 'alfajr', 'ayat', 'bahas', 'lengkap']</t>
+          <t>['silakan', 'mengikuti', 'diskusi', 'seputar', 'islam', 'berbeda', 'semoga', 'bermanfaat', 'podcast', 'indonesia', 'islam', 'berbeda']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['sila', 'ikut', 'diskusi', 'putar', 'islam', 'beda', 'moga', 'manfaat', 'podcast', 'indonesia', 'islam', 'beda']</t>
         </is>
       </c>
     </row>
@@ -3815,34 +4285,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17337</v>
+        <v>28106</v>
       </c>
       <c r="C95" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>rupanya dalam beragama muncul kecenderungan muslim melihat kemakmuran sebagai kasih sayang tuhan sebagai bukti di</t>
+          <t>liputan menarik tentang perjuangan saintis rusia mengembangkan vaksin covid dan bagaimana pemilihan namanya mas</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['rupanya', 'dalam', 'beragama', 'muncul', 'kecenderungan', 'muslim', 'melihat', 'kemakmuran', 'sebagai', 'kasih', 'sayang', 'tuhan', 'sebagai', 'bukti', 'di']</t>
+          <t>['liputan', 'menarik', 'tentang', 'perjuangan', 'saintis', 'rusia', 'mengembangkan', 'vaksin', 'covid', 'dan', 'bagaimana', 'pemilihan', 'namanya', 'mas']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['liputan', 'menarik', 'tentang', 'perjuangan', 'saintis', 'rusia', 'mengembangkan', 'vaksin', 'covid', 'dan', 'bagaimana', 'pemilihan', 'namanya', 'mas']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['beragama', 'muncul', 'kecenderungan', 'muslim', 'kemakmuran', 'kasih', 'sayang', 'tuhan', 'bukti']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['agama', 'muncul', 'cenderung', 'muslim', 'makmur', 'kasih', 'sayang', 'tuhan', 'bukti']</t>
+          <t>['liputan', 'menarik', 'perjuangan', 'saintis', 'rusia', 'mengembangkan', 'vaksin', 'covid', 'pemilihan', 'namanya', 'mas']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['liput', 'tarik', 'juang', 'saintis', 'rusia', 'kembang', 'vaksin', 'covid', 'pilih', 'nama', 'mas']</t>
         </is>
       </c>
     </row>
@@ -3851,34 +4326,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17338</v>
+        <v>28107</v>
       </c>
       <c r="C96" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>di kaca mobil mewah sering mendapati stiker bertuliskan itu kalimat nabi sulaiman nabi yang di</t>
+          <t>all  wanna say is that they dont care about us</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['di', 'kaca', 'mobil', 'mewah', 'sering', 'mendapati', 'stiker', 'bertuliskan', 'itu', 'kalimat', 'nabi', 'sulaiman', 'nabi', 'yang', 'di']</t>
+          <t>['all', 'wan', 'na', 'say', 'is', 'that', 'they', 'dont', 'care', 'about', 'us']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['all', 'wan', 'na', 'sayang', 'is', 'that', 'they', 'do, not', 'care', 'about', 'us']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['kaca', 'mobil', 'mewah', 'mendapati', 'stiker', 'bertuliskan', 'kalimat', 'nabi', 'sulaiman', 'nabi']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['kaca', 'mobil', 'mewah', 'dapat', 'stiker', 'tulis', 'kalimat', 'nabi', 'sulaiman', 'nabi']</t>
+          <t>['all', 'wan', 'na', 'sayang', 'is', 'that', 'they', 'do, not', 'care', 'about', 'us']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['all', 'wan', 'na', 'sayang', 'is', 'that', 'they', 'do not', 'care', 'about', 'us']</t>
         </is>
       </c>
     </row>
@@ -3887,34 +4367,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17339</v>
+        <v>28108</v>
       </c>
       <c r="C97" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>orang yang terobsesi dg kemurnian dan keaslian tak beda dg hitler tak berjarak dg ekstremis agama anda sama saja</t>
+          <t>aung san suu kyi menjadi contoh sempurna kutipan martin niemoller</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['orang', 'yang', 'terobsesi', 'dg', 'kemurnian', 'dan', 'keaslian', 'tak', 'beda', 'dg', 'hitler', 'tak', 'berjarak', 'dg', 'ekstremis', 'agama', 'anda', 'sama', 'saja']</t>
+          <t>['aung', 'san', 'suu', 'kyi', 'menjadi', 'contoh', 'sempurna', 'kutipan', 'martin', 'niemoller']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['aung', 'san', 'suu', 'kyi', 'menjadi', 'contoh', 'sempurna', 'kutipan', 'martin', 'niemoller']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['orang', 'terobsesi', 'kemurnian', 'keaslian', 'beda', 'hitler', 'berjarak', 'ekstremis', 'agama']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['orang', 'obsesi', 'murni', 'asli', 'beda', 'hitler', 'jarak', 'ekstremis', 'agama']</t>
+          <t>['aung', 'san', 'suu', 'kyi', 'contoh', 'sempurna', 'kutipan', 'martin', 'niemoller']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['aung', 'san', 'suu', 'kyi', 'contoh', 'sempurna', 'kutip', 'martin', 'niemoller']</t>
         </is>
       </c>
     </row>
@@ -3923,34 +4408,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17340</v>
+        <v>28109</v>
       </c>
       <c r="C98" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>agen toleransi kayak gini nih lamalama orang muak sama kampanye toleransi</t>
+          <t xml:space="preserve">di awal pandemi rezim modi sempat dikritik keras terkait kelambanan bertindak dan diskriminasi antara lain oleh </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['agen', 'toleransi', 'kayak', 'gini', 'nih', 'lamalama', 'orang', 'muak', 'sama', 'kampanye', 'toleransi']</t>
+          <t>['di', 'awal', 'pandemi', 'rezim', 'modi', 'sempat', 'dikritik', 'keras', 'terkait', 'kelambanan', 'bertindak', 'dan', 'diskriminasi', 'antara', 'lain', 'oleh']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['di', 'awal', 'pandemi', 'rezim', 'modi', 'sempat', 'dikritik', 'keras', 'terkait', 'kelambanan', 'bertindak', 'dan', 'diskriminasi', 'antara', 'lain', 'oleh']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['agen', 'toleransi', 'kayak', 'gini', 'lamalama', 'orang', 'muak', 'kampanye', 'toleransi']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['agen', 'toleransi', 'kayak', 'gin', 'lamalama', 'orang', 'muak', 'kampanye', 'toleransi']</t>
+          <t>['pandemi', 'rezim', 'modi', 'dikritik', 'keras', 'terkait', 'kelambanan', 'bertindak', 'diskriminasi']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['pandemi', 'rezim', 'modi', 'kritik', 'keras', 'kait', 'lamban', 'tindak', 'diskriminasi']</t>
         </is>
       </c>
     </row>
@@ -3959,34 +4449,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17341</v>
+        <v>28110</v>
       </c>
       <c r="C99" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>jelak sudah dengan pernyataan ibu satu ini beliau tinggal datang ke istana di sana ada orang paling kuasa di re</t>
+          <t>pilihan orang ini menggunakan kata islam alihalih kelompok atau pandangan muslim tertentu mirip dengan gaya argu</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['jelak', 'sudah', 'dengan', 'pernyataan', 'ibu', 'satu', 'ini', 'beliau', 'tinggal', 'datang', 'ke', 'istana', 'di', 'sana', 'ada', 'orang', 'paling', 'kuasa', 'di', 're']</t>
+          <t>['pilihan', 'orang', 'ini', 'menggunakan', 'kata', 'islam', 'alihalih', 'kelompok', 'atau', 'pandangan', 'muslim', 'tertentu', 'mirip', 'dengan', 'gaya', 'argu']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['pilihan', 'orang', 'ini', 'menggunakan', 'kata', 'islam', 'alihalih', 'kelompok', 'atau', 'pandangan', 'muslim', 'tertentu', 'mirip', 'dengan', 'gaya', 'argu']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['jelak', 'pernyataan', 'beliau', 'tinggal', 'istana', 'orang', 'kuasa', 're']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['jelak', 'nyata', 'beliau', 'tinggal', 'istana', 'orang', 'kuasa', 're']</t>
+          <t>['pilihan', 'orang', 'islam', 'alihalih', 'kelompok', 'pandangan', 'muslim', 'gaya', 'argu']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['pilih', 'orang', 'islam', 'alihalih', 'kelompok', 'pandang', 'muslim', 'gaya', 'argu']</t>
         </is>
       </c>
     </row>
@@ -3995,34 +4490,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17342</v>
+        <v>28111</v>
       </c>
       <c r="C100" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>iklan kpu dan kampanye fans pemilu memilih menentukan masa depan bangsa seolah alasan orang golput karena terla</t>
+          <t>salah satu yang menarik dari buku ini adalah ulasan hegghammer atas pembunuhan azzam pada november setelah so</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['iklan', 'kpu', 'dan', 'kampanye', 'fans', 'pemilu', 'memilih', 'menentukan', 'masa', 'depan', 'bangsa', 'seolah', 'alasan', 'orang', 'golput', 'karena', 'terla']</t>
+          <t>['salah', 'satu', 'yang', 'menarik', 'dari', 'buku', 'ini', 'adalah', 'ulasan', 'hegghammer', 'atas', 'pembunuhan', 'azzam', 'pada', 'november', 'setelah', 'so']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['salah', 'satu', 'yang', 'menarik', 'dari', 'buku', 'ini', 'adalah', 'ulasan', 'hegghammer', 'atas', 'pembunuhan', 'azzam', 'pada', 'november', 'setelah', 'sok']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['iklan', 'kpu', 'kampanye', 'fans', 'pemilu', 'memilih', 'menentukan', 'bangsa', 'alasan', 'orang', 'golput', 'terla']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['iklan', 'kpu', 'kampanye', 'fans', 'milu', 'pilih', 'tentu', 'bangsa', 'alas', 'orang', 'golput', 'terla']</t>
+          <t>['salah', 'menarik', 'buku', 'ulasan', 'hegghammer', 'pembunuhan', 'azzam', 'november', 'sok']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['salah', 'tarik', 'buku', 'ulas', 'hegghammer', 'bunuh', 'azzam', 'november', 'sok']</t>
         </is>
       </c>
     </row>
@@ -4031,34 +4531,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17343</v>
+        <v>28112</v>
       </c>
       <c r="C101" t="n">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>witchhunt sudah ada sejak abad pertengahan sbg cara kendali penguasa dg mengeksploitasi histeria massa dlm perp</t>
+          <t>dia hidup di apartemen bawah tanah rumah mewah hingga guagua berteman dengan aktivis islam hingga bertemu para</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['witchhunt', 'sudah', 'ada', 'sejak', 'abad', 'pertengahan', 'sbg', 'cara', 'kendali', 'penguasa', 'dg', 'mengeksploitasi', 'histeria', 'massa', 'dlm', 'perp']</t>
+          <t>['dia', 'hidup', 'di', 'apartemen', 'bawah', 'tanah', 'rumah', 'mewah', 'hingga', 'guagua', 'berteman', 'dengan', 'aktivis', 'islam', 'hingga', 'bertemu', 'para']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['dia', 'hidup', 'di', 'apartemen', 'bawah', 'tanah', 'rumah', 'mewah', 'hingga', 'guagua', 'berteman', 'dengan', 'aktivis', 'islam', 'hingga', 'bertemu', 'para']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['witchhunt', 'abad', 'pertengahan', 'sbg', 'kendali', 'penguasa', 'mengeksploitasi', 'histeria', 'massa', 'dlm', 'perp']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['witchhunt', 'abad', 'tengah', 'sbg', 'kendali', 'kuasa', 'eksploitasi', 'histeria', 'massa', 'dlm', 'perp']</t>
+          <t>['hidup', 'apartemen', 'tanah', 'rumah', 'mewah', 'guagua', 'berteman', 'aktivis', 'islam', 'bertemu']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['hidup', 'apartemen', 'tanah', 'rumah', 'mewah', 'guagua', 'teman', 'aktivis', 'islam', 'temu']</t>
         </is>
       </c>
     </row>
